--- a/Cambio porcentual de delitos en ZMG.xlsx
+++ b/Cambio porcentual de delitos en ZMG.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L89"/>
+  <dimension ref="A1:L102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -674,7 +674,7 @@
         <v>8.564809470902034</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>24.90954782979775</v>
+        <v>24.90954782979773</v>
       </c>
     </row>
     <row r="7">
@@ -732,7 +732,7 @@
         <v>-3.654992499925058</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>-4.279657477054799</v>
+        <v>-4.279657477054821</v>
       </c>
       <c r="G8" s="4" t="n">
         <v>-19.01793442958433</v>
@@ -750,7 +750,7 @@
         <v>45.45304379926121</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>-0.07327717406589995</v>
+        <v>-0.07327717406588885</v>
       </c>
     </row>
     <row r="9">
@@ -770,7 +770,7 @@
         <v>-3.945947019172358</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>-6.490455107562576</v>
+        <v>-6.490455107562565</v>
       </c>
       <c r="G9" s="3" t="n">
         <v>15.45177569217979</v>
@@ -840,7 +840,7 @@
         <v>22.22216729983961</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>17.06026850668938</v>
+        <v>17.06026850668934</v>
       </c>
       <c r="E11" s="3" t="n">
         <v>25.88175222319573</v>
@@ -878,13 +878,13 @@
         <v>-11.84150019736997</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>-13.10314714461893</v>
+        <v>-13.10314714461891</v>
       </c>
       <c r="E12" s="4" t="n">
         <v>-11.46100637794247</v>
       </c>
       <c r="F12" s="4" t="n">
-        <v>-11.92981352441284</v>
+        <v>-11.92981352441285</v>
       </c>
       <c r="G12" s="4" t="n">
         <v>-6.031259011547641</v>
@@ -902,7 +902,7 @@
         <v>24.50080578309961</v>
       </c>
       <c r="L12" s="4" t="n">
-        <v>-12.56359613325224</v>
+        <v>-12.56359613325223</v>
       </c>
     </row>
     <row r="13">
@@ -916,13 +916,13 @@
         <v>-0.3018136229865021</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>-9.30278932873928</v>
+        <v>-9.302789328739291</v>
       </c>
       <c r="E13" s="4" t="n">
         <v>-1.357597692284196</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>14.79821316656296</v>
+        <v>14.79821316656298</v>
       </c>
       <c r="G13" s="4" t="n">
         <v>-7.023823876758373</v>
@@ -940,7 +940,7 @@
         <v>-36.058110947165</v>
       </c>
       <c r="L13" s="4" t="n">
-        <v>-28.6253964962872</v>
+        <v>-28.62539649628722</v>
       </c>
     </row>
     <row r="14">
@@ -954,7 +954,7 @@
         <v>-2.742423110917025</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>3.006376335829097</v>
+        <v>3.00637633582912</v>
       </c>
       <c r="E14" s="3" t="n">
         <v>0.03745724219819113</v>
@@ -992,7 +992,7 @@
         <v>-10.35265180196446</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>-10.710957803679</v>
+        <v>-10.71095780367902</v>
       </c>
       <c r="E15" s="4" t="n">
         <v>-7.565000957644052</v>
@@ -1027,16 +1027,16 @@
         <v>7.362745746376298</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>6.020582802700813</v>
+        <v>6.020582802700769</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>11.82954208438829</v>
+        <v>11.82954208438831</v>
       </c>
       <c r="E16" s="3" t="n">
         <v>1.723791409410524</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>12.58080683650895</v>
+        <v>12.58080683650893</v>
       </c>
       <c r="G16" s="3" t="n">
         <v>4.924489601792792</v>
@@ -1065,7 +1065,7 @@
         <v>15.46057487739914</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>16.64008099083467</v>
+        <v>16.64008099083471</v>
       </c>
       <c r="D17" s="3" t="n">
         <v>21.32207813685325</v>
@@ -1074,7 +1074,7 @@
         <v>23.97742874920809</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>17.39380644301989</v>
+        <v>17.39380644301991</v>
       </c>
       <c r="G17" s="4" t="n">
         <v>-3.688099470287109</v>
@@ -1092,7 +1092,7 @@
         <v>-7.917105602773167</v>
       </c>
       <c r="L17" s="3" t="n">
-        <v>3.370843638606735</v>
+        <v>3.370843638606758</v>
       </c>
     </row>
     <row r="18">
@@ -1103,10 +1103,10 @@
         <v>-8.582319927642057</v>
       </c>
       <c r="C18" s="4" t="n">
-        <v>-10.12754983915266</v>
+        <v>-10.12754983915267</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>-10.21548401183654</v>
+        <v>-10.21548401183653</v>
       </c>
       <c r="E18" s="4" t="n">
         <v>-6.972159713978421</v>
@@ -1130,7 +1130,7 @@
         <v>-15.49669694377226</v>
       </c>
       <c r="L18" s="3" t="n">
-        <v>29.89887047640674</v>
+        <v>29.89887047640669</v>
       </c>
     </row>
     <row r="19">
@@ -1141,16 +1141,16 @@
         <v>64.74732074505096</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>81.77704980537645</v>
+        <v>81.77704980537639</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>59.26975106335857</v>
+        <v>59.26975106335859</v>
       </c>
       <c r="E19" s="3" t="n">
         <v>60.97850216711858</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>42.75873703620765</v>
+        <v>42.75873703620761</v>
       </c>
       <c r="G19" s="3" t="n">
         <v>42.87971966029956</v>
@@ -1168,7 +1168,7 @@
         <v>85.76255952578593</v>
       </c>
       <c r="L19" s="3" t="n">
-        <v>12.73509104488697</v>
+        <v>12.73509104488699</v>
       </c>
     </row>
     <row r="20">
@@ -1179,7 +1179,7 @@
         <v>-1.674651672124849</v>
       </c>
       <c r="C20" s="4" t="n">
-        <v>-5.390212175998366</v>
+        <v>-5.39021217599831</v>
       </c>
       <c r="D20" s="3" t="n">
         <v>3.771752834564435</v>
@@ -1188,7 +1188,7 @@
         <v>-13.75492119088095</v>
       </c>
       <c r="F20" s="4" t="n">
-        <v>-2.875440220865044</v>
+        <v>-2.875440220865022</v>
       </c>
       <c r="G20" s="3" t="n">
         <v>14.95450251966797</v>
@@ -1206,7 +1206,7 @@
         <v>-20.85585577468776</v>
       </c>
       <c r="L20" s="3" t="n">
-        <v>6.734134962367366</v>
+        <v>6.734134962367344</v>
       </c>
     </row>
     <row r="21">
@@ -1217,16 +1217,16 @@
         <v>-2.646578241566</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>1.108887392314828</v>
+        <v>1.108887392314784</v>
       </c>
       <c r="D21" s="4" t="n">
-        <v>-4.895200911919273</v>
+        <v>-4.895200911919295</v>
       </c>
       <c r="E21" s="4" t="n">
         <v>-0.847577719809145</v>
       </c>
       <c r="F21" s="4" t="n">
-        <v>-5.780128842542109</v>
+        <v>-5.780128842542132</v>
       </c>
       <c r="G21" s="4" t="n">
         <v>-10.31792610423836</v>
@@ -1244,7 +1244,7 @@
         <v>11.14666190221476</v>
       </c>
       <c r="L21" s="3" t="n">
-        <v>31.81050180387583</v>
+        <v>31.81050180387586</v>
       </c>
     </row>
     <row r="22">
@@ -1255,7 +1255,7 @@
         <v>-12.14728928553194</v>
       </c>
       <c r="C22" s="4" t="n">
-        <v>-16.74641547526646</v>
+        <v>-16.74641547526645</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>-8.122351551388141</v>
@@ -1264,7 +1264,7 @@
         <v>-12.93908169410061</v>
       </c>
       <c r="F22" s="4" t="n">
-        <v>-7.750085510560378</v>
+        <v>-7.750085510560368</v>
       </c>
       <c r="G22" s="4" t="n">
         <v>-14.38408715184572</v>
@@ -1282,7 +1282,7 @@
         <v>16.28886938801739</v>
       </c>
       <c r="L22" s="4" t="n">
-        <v>-62.93179691943471</v>
+        <v>-62.9317969194347</v>
       </c>
     </row>
     <row r="23">
@@ -1293,10 +1293,10 @@
         <v>16.03197876724442</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>20.51555467930126</v>
+        <v>20.51555467930129</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>13.96457692039623</v>
+        <v>13.96457692039625</v>
       </c>
       <c r="E23" s="3" t="n">
         <v>17.42402728324728</v>
@@ -1320,7 +1320,7 @@
         <v>-11.79523767319499</v>
       </c>
       <c r="L23" s="3" t="n">
-        <v>178.0381740364428</v>
+        <v>178.0381740364427</v>
       </c>
     </row>
     <row r="24">
@@ -1331,16 +1331,16 @@
         <v>3.76130949788589</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>2.73088462533726</v>
+        <v>2.730884625337282</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>0.9742453010992191</v>
+        <v>0.9742453010991969</v>
       </c>
       <c r="E24" s="3" t="n">
         <v>3.650561964622123</v>
       </c>
       <c r="F24" s="3" t="n">
-        <v>1.41336383876749</v>
+        <v>1.413363838767445</v>
       </c>
       <c r="G24" s="3" t="n">
         <v>34.26126398389029</v>
@@ -1358,7 +1358,7 @@
         <v>-3.621551887348429</v>
       </c>
       <c r="L24" s="3" t="n">
-        <v>3.044683919981783</v>
+        <v>3.044683919981805</v>
       </c>
     </row>
     <row r="25">
@@ -1369,16 +1369,16 @@
         <v>3.296264931031434</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>3.656514737773664</v>
+        <v>3.656514737773642</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>6.278050011819936</v>
+        <v>6.278050011819958</v>
       </c>
       <c r="E25" s="3" t="n">
         <v>6.597270291793533</v>
       </c>
       <c r="F25" s="3" t="n">
-        <v>18.09674623392654</v>
+        <v>18.09674623392656</v>
       </c>
       <c r="G25" s="4" t="n">
         <v>-22.05103341645003</v>
@@ -1407,7 +1407,7 @@
         <v>-2.595264577216494</v>
       </c>
       <c r="C26" s="4" t="n">
-        <v>-9.715697500707643</v>
+        <v>-9.715697500707632</v>
       </c>
       <c r="D26" s="4" t="n">
         <v>-2.171057701400947</v>
@@ -1416,7 +1416,7 @@
         <v>-1.59096465246531</v>
       </c>
       <c r="F26" s="4" t="n">
-        <v>-4.050757078386368</v>
+        <v>-4.050757078386336</v>
       </c>
       <c r="G26" s="3" t="n">
         <v>32.97421593444749</v>
@@ -1451,7 +1451,7 @@
         <v>-13.62358072535415</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>-13.01187862241141</v>
+        <v>-13.01187862241142</v>
       </c>
       <c r="F27" s="4" t="n">
         <v>-8.624887261917092</v>
@@ -1460,7 +1460,7 @@
         <v>-15.86149704976668</v>
       </c>
       <c r="H27" s="4" t="n">
-        <v>-1.95768770628183</v>
+        <v>-1.957687706281808</v>
       </c>
       <c r="I27" s="4" t="n">
         <v>-2.496430970861818</v>
@@ -1472,7 +1472,7 @@
         <v>-16.24328182661559</v>
       </c>
       <c r="L27" s="4" t="n">
-        <v>-30.40860074405398</v>
+        <v>-30.40860074405397</v>
       </c>
     </row>
     <row r="28">
@@ -1489,7 +1489,7 @@
         <v>14.72245632581257</v>
       </c>
       <c r="E28" s="3" t="n">
-        <v>15.11669858557265</v>
+        <v>15.11669858557267</v>
       </c>
       <c r="F28" s="3" t="n">
         <v>8.589133936837779</v>
@@ -1498,7 +1498,7 @@
         <v>28.79283955556255</v>
       </c>
       <c r="H28" s="3" t="n">
-        <v>8.947282701256754</v>
+        <v>8.947282701256732</v>
       </c>
       <c r="I28" s="4" t="n">
         <v>-11.63614009456905</v>
@@ -1510,7 +1510,7 @@
         <v>9.776882890947292</v>
       </c>
       <c r="L28" s="4" t="n">
-        <v>-10.33020530391626</v>
+        <v>-10.33020530391625</v>
       </c>
     </row>
     <row r="29">
@@ -1521,19 +1521,19 @@
         <v>-10.88283377282654</v>
       </c>
       <c r="C29" s="4" t="n">
-        <v>-13.39455595888378</v>
+        <v>-13.39455595888381</v>
       </c>
       <c r="D29" s="4" t="n">
         <v>-11.953341064067</v>
       </c>
       <c r="E29" s="4" t="n">
-        <v>-11.8041587553124</v>
+        <v>-11.80415875531241</v>
       </c>
       <c r="F29" s="4" t="n">
         <v>-3.672058751544094</v>
       </c>
       <c r="G29" s="4" t="n">
-        <v>-10.12007243299435</v>
+        <v>-10.12007243299434</v>
       </c>
       <c r="H29" s="3" t="n">
         <v>4.927963176362171</v>
@@ -1548,7 +1548,7 @@
         <v>-11.34747712879</v>
       </c>
       <c r="L29" s="3" t="n">
-        <v>62.72685123712456</v>
+        <v>62.72685123712458</v>
       </c>
     </row>
     <row r="30">
@@ -1559,16 +1559,16 @@
         <v>11.75692904990082</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>17.45661410454424</v>
+        <v>17.45661410454429</v>
       </c>
       <c r="D30" s="3" t="n">
         <v>12.65897100068851</v>
       </c>
       <c r="E30" s="3" t="n">
-        <v>11.82689612185484</v>
+        <v>11.82689612185486</v>
       </c>
       <c r="F30" s="3" t="n">
-        <v>5.074956404806663</v>
+        <v>5.074956404806641</v>
       </c>
       <c r="G30" s="3" t="n">
         <v>2.215653429771414</v>
@@ -1586,7 +1586,7 @@
         <v>10.06047435737212</v>
       </c>
       <c r="L30" s="4" t="n">
-        <v>-35.14166706286963</v>
+        <v>-35.14166706286964</v>
       </c>
     </row>
     <row r="31">
@@ -1606,10 +1606,10 @@
         <v>7.935423064697011</v>
       </c>
       <c r="F31" s="4" t="n">
-        <v>-2.193988791973978</v>
+        <v>-2.193988791973955</v>
       </c>
       <c r="G31" s="3" t="n">
-        <v>4.019767285276932</v>
+        <v>4.01976728527691</v>
       </c>
       <c r="H31" s="3" t="n">
         <v>27.16967692680141</v>
@@ -1618,7 +1618,7 @@
         <v>29.03819078035193</v>
       </c>
       <c r="J31" s="3" t="n">
-        <v>148.0697910498402</v>
+        <v>148.0697910498403</v>
       </c>
       <c r="K31" s="3" t="n">
         <v>10.45110319647056</v>
@@ -1638,31 +1638,31 @@
         <v>0.6809881463572642</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>0.5531631639879242</v>
+        <v>0.5531631639879464</v>
       </c>
       <c r="E32" s="4" t="n">
-        <v>-2.687429033361144</v>
+        <v>-2.687429033361122</v>
       </c>
       <c r="F32" s="3" t="n">
         <v>5.597629530930726</v>
       </c>
       <c r="G32" s="4" t="n">
-        <v>-2.921727908612115</v>
+        <v>-2.921727908612104</v>
       </c>
       <c r="H32" s="3" t="n">
-        <v>13.19194719641466</v>
+        <v>13.19194719641468</v>
       </c>
       <c r="I32" s="4" t="n">
         <v>-0.295273481279279</v>
       </c>
       <c r="J32" s="3" t="n">
-        <v>38.88280657447556</v>
+        <v>38.88280657447554</v>
       </c>
       <c r="K32" s="4" t="n">
         <v>-14.06598622209451</v>
       </c>
       <c r="L32" s="4" t="n">
-        <v>-24.20164313455695</v>
+        <v>-24.20164313455696</v>
       </c>
     </row>
     <row r="33">
@@ -1670,22 +1670,22 @@
         <v>42978</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>5.753603220162762</v>
+        <v>5.75360322016274</v>
       </c>
       <c r="C33" s="3" t="n">
         <v>10.79630527606117</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>7.067605812297151</v>
+        <v>7.067605812297129</v>
       </c>
       <c r="E33" s="3" t="n">
-        <v>7.048727084819939</v>
+        <v>7.048727084819917</v>
       </c>
       <c r="F33" s="3" t="n">
         <v>4.336514363419042</v>
       </c>
       <c r="G33" s="3" t="n">
-        <v>3.942232639897703</v>
+        <v>3.94223263989768</v>
       </c>
       <c r="H33" s="4" t="n">
         <v>-37.22446123839433</v>
@@ -1700,7 +1700,7 @@
         <v>1.433510322470677</v>
       </c>
       <c r="L33" s="4" t="n">
-        <v>-29.60494396680557</v>
+        <v>-29.60494396680556</v>
       </c>
     </row>
     <row r="34">
@@ -1708,7 +1708,7 @@
         <v>43008</v>
       </c>
       <c r="B34" s="4" t="n">
-        <v>-6.585842791036855</v>
+        <v>-6.585842791036834</v>
       </c>
       <c r="C34" s="4" t="n">
         <v>-7.356030032138983</v>
@@ -1717,13 +1717,13 @@
         <v>-5.025881572682067</v>
       </c>
       <c r="E34" s="4" t="n">
-        <v>-11.42550629230502</v>
+        <v>-11.42550629230501</v>
       </c>
       <c r="F34" s="4" t="n">
         <v>-12.17593235101048</v>
       </c>
       <c r="G34" s="3" t="n">
-        <v>6.927495517965965</v>
+        <v>6.927495517965987</v>
       </c>
       <c r="H34" s="4" t="n">
         <v>-20.67311421083188</v>
@@ -1732,7 +1732,7 @@
         <v>16.74571321614777</v>
       </c>
       <c r="J34" s="4" t="n">
-        <v>-33.84816694557783</v>
+        <v>-33.84816694557782</v>
       </c>
       <c r="K34" s="4" t="n">
         <v>-12.10658715912525</v>
@@ -1746,10 +1746,10 @@
         <v>43039</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>7.750903538015086</v>
+        <v>7.750903538015042</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>6.608324590942583</v>
+        <v>6.608324590942605</v>
       </c>
       <c r="D35" s="3" t="n">
         <v>4.113931348764788</v>
@@ -1758,13 +1758,13 @@
         <v>17.1516322171569</v>
       </c>
       <c r="F35" s="3" t="n">
-        <v>11.42432186513911</v>
+        <v>11.42432186513913</v>
       </c>
       <c r="G35" s="3" t="n">
-        <v>1.536975017006448</v>
+        <v>1.536975017006426</v>
       </c>
       <c r="H35" s="3" t="n">
-        <v>43.83590042681662</v>
+        <v>43.8359004268166</v>
       </c>
       <c r="I35" s="4" t="n">
         <v>-8.595402522153284</v>
@@ -1776,7 +1776,7 @@
         <v>29.31861674148513</v>
       </c>
       <c r="L35" s="4" t="n">
-        <v>-17.21357200966019</v>
+        <v>-17.2135720096602</v>
       </c>
     </row>
     <row r="36">
@@ -1784,25 +1784,25 @@
         <v>43069</v>
       </c>
       <c r="B36" s="4" t="n">
-        <v>-5.794323017542402</v>
+        <v>-5.794323017542369</v>
       </c>
       <c r="C36" s="4" t="n">
-        <v>-7.79700513289553</v>
+        <v>-7.797005132895518</v>
       </c>
       <c r="D36" s="4" t="n">
-        <v>-5.103094828631304</v>
+        <v>-5.103094828631294</v>
       </c>
       <c r="E36" s="4" t="n">
-        <v>-6.520089093621662</v>
+        <v>-6.52008909362165</v>
       </c>
       <c r="F36" s="4" t="n">
-        <v>-6.723990062855634</v>
+        <v>-6.723990062855655</v>
       </c>
       <c r="G36" s="4" t="n">
-        <v>-4.243524206394755</v>
+        <v>-4.243524206394744</v>
       </c>
       <c r="H36" s="3" t="n">
-        <v>13.67892914765081</v>
+        <v>13.67892914765083</v>
       </c>
       <c r="I36" s="3" t="n">
         <v>31.45741150698116</v>
@@ -1814,7 +1814,7 @@
         <v>-16.60974794982269</v>
       </c>
       <c r="L36" s="3" t="n">
-        <v>24.03485723703474</v>
+        <v>24.03485723703476</v>
       </c>
     </row>
     <row r="37">
@@ -1828,10 +1828,10 @@
         <v>-8.396732715921662</v>
       </c>
       <c r="D37" s="4" t="n">
-        <v>-13.67978125084301</v>
+        <v>-13.67978125084299</v>
       </c>
       <c r="E37" s="4" t="n">
-        <v>-14.51792197118569</v>
+        <v>-14.51792197118571</v>
       </c>
       <c r="F37" s="4" t="n">
         <v>-15.28026548161316</v>
@@ -1840,7 +1840,7 @@
         <v>-0.9977216278956424</v>
       </c>
       <c r="H37" s="3" t="n">
-        <v>43.27781228350251</v>
+        <v>43.27781228350249</v>
       </c>
       <c r="I37" s="4" t="n">
         <v>-39.82397236642875</v>
@@ -1852,7 +1852,7 @@
         <v>-25.65991728271433</v>
       </c>
       <c r="L37" s="3" t="n">
-        <v>97.05211871494106</v>
+        <v>97.05211871494097</v>
       </c>
     </row>
     <row r="38">
@@ -1860,25 +1860,25 @@
         <v>43131</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>11.79404837792435</v>
+        <v>11.79404837792431</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>6.673770011998537</v>
+        <v>6.673770011998492</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>12.8692483527656</v>
+        <v>12.86924835276555</v>
       </c>
       <c r="E38" s="3" t="n">
-        <v>25.56823344349077</v>
+        <v>25.5682334434908</v>
       </c>
       <c r="F38" s="3" t="n">
         <v>38.02182146760757</v>
       </c>
       <c r="G38" s="3" t="n">
-        <v>8.640835800063673</v>
+        <v>8.640835800063652</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>-13.45226871584149</v>
+        <v>-13.4522687158415</v>
       </c>
       <c r="I38" s="3" t="n">
         <v>31.06500495669085</v>
@@ -1898,22 +1898,22 @@
         <v>43159</v>
       </c>
       <c r="B39" s="4" t="n">
-        <v>-6.249570919083669</v>
+        <v>-6.249570919083657</v>
       </c>
       <c r="C39" s="4" t="n">
-        <v>-2.379085615246068</v>
+        <v>-2.379085615246024</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>-8.771712862432901</v>
+        <v>-8.771712862432878</v>
       </c>
       <c r="E39" s="4" t="n">
         <v>-3.963948497748115</v>
       </c>
       <c r="F39" s="4" t="n">
-        <v>-10.30373220923917</v>
+        <v>-10.30373220923914</v>
       </c>
       <c r="G39" s="4" t="n">
-        <v>-6.064526004262294</v>
+        <v>-6.064526004262283</v>
       </c>
       <c r="H39" s="4" t="n">
         <v>-31.52040726390479</v>
@@ -1922,7 +1922,7 @@
         <v>47.46059436830343</v>
       </c>
       <c r="J39" s="4" t="n">
-        <v>-35.75973332346767</v>
+        <v>-35.75973332346766</v>
       </c>
       <c r="K39" s="4" t="n">
         <v>-25.66169796856587</v>
@@ -1945,16 +1945,16 @@
         <v>10.32239722548356</v>
       </c>
       <c r="E40" s="3" t="n">
-        <v>1.610753768054285</v>
+        <v>1.610753768054263</v>
       </c>
       <c r="F40" s="3" t="n">
         <v>4.947404047429926</v>
       </c>
       <c r="G40" s="4" t="n">
-        <v>-0.07845596714181058</v>
+        <v>-0.07845596714178837</v>
       </c>
       <c r="H40" s="4" t="n">
-        <v>-11.675433539377</v>
+        <v>-11.67543353937702</v>
       </c>
       <c r="I40" s="4" t="n">
         <v>-23.73648879767628</v>
@@ -1966,7 +1966,7 @@
         <v>48.19674482050371</v>
       </c>
       <c r="L40" s="3" t="n">
-        <v>8.013432677932597</v>
+        <v>8.013432677932641</v>
       </c>
     </row>
     <row r="41">
@@ -1974,37 +1974,37 @@
         <v>43220</v>
       </c>
       <c r="B41" s="4" t="n">
-        <v>-4.78110653421393</v>
+        <v>-4.781106534213919</v>
       </c>
       <c r="C41" s="4" t="n">
-        <v>-5.727161958493532</v>
+        <v>-5.727161958493554</v>
       </c>
       <c r="D41" s="3" t="n">
         <v>1.929796314235332</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>-10.87471627449443</v>
+        <v>-10.87471627449444</v>
       </c>
       <c r="F41" s="4" t="n">
-        <v>-10.42143013743073</v>
+        <v>-10.42143013743076</v>
       </c>
       <c r="G41" s="4" t="n">
-        <v>-6.907402431076393</v>
+        <v>-6.907402431076404</v>
       </c>
       <c r="H41" s="3" t="n">
-        <v>11.80206821454204</v>
+        <v>11.80206821454206</v>
       </c>
       <c r="I41" s="3" t="n">
         <v>28.51220798592029</v>
       </c>
       <c r="J41" s="3" t="n">
-        <v>24.03757164880114</v>
+        <v>24.03757164880112</v>
       </c>
       <c r="K41" s="4" t="n">
         <v>-31.11317829710341</v>
       </c>
       <c r="L41" s="3" t="n">
-        <v>42.3786138875943</v>
+        <v>42.37861388759428</v>
       </c>
     </row>
     <row r="42">
@@ -2012,16 +2012,16 @@
         <v>43251</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>3.9791635555944</v>
+        <v>3.979163555594356</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>8.792287263021702</v>
+        <v>8.792287263021748</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>-1.049328209039813</v>
+        <v>-1.049328209039802</v>
       </c>
       <c r="E42" s="3" t="n">
-        <v>5.564581559299842</v>
+        <v>5.564581559299886</v>
       </c>
       <c r="F42" s="3" t="n">
         <v>4.254706436393385</v>
@@ -2030,7 +2030,7 @@
         <v>-0.7539469641285379</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>-15.58408202834577</v>
+        <v>-15.58408202834576</v>
       </c>
       <c r="I42" s="3" t="n">
         <v>2.712320706035931</v>
@@ -2042,7 +2042,7 @@
         <v>26.52405003981551</v>
       </c>
       <c r="L42" s="3" t="n">
-        <v>41.97954710933735</v>
+        <v>41.97954710933733</v>
       </c>
     </row>
     <row r="43">
@@ -2053,22 +2053,22 @@
         <v>-7.393330032039314</v>
       </c>
       <c r="C43" s="4" t="n">
-        <v>-10.81407156669438</v>
+        <v>-10.81407156669439</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>-7.978358428525134</v>
+        <v>-7.978358428525123</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>-2.432794670523453</v>
+        <v>-2.432794670523475</v>
       </c>
       <c r="F43" s="4" t="n">
-        <v>-5.131436668189582</v>
+        <v>-5.13143666818957</v>
       </c>
       <c r="G43" s="3" t="n">
-        <v>2.23551784504108</v>
+        <v>2.235517845041102</v>
       </c>
       <c r="H43" s="3" t="n">
-        <v>5.362657031066487</v>
+        <v>5.362657031066465</v>
       </c>
       <c r="I43" s="4" t="n">
         <v>-50.84953570919636</v>
@@ -2080,7 +2080,7 @@
         <v>-23.81515938284006</v>
       </c>
       <c r="L43" s="4" t="n">
-        <v>-9.954089200795346</v>
+        <v>-9.954089200795336</v>
       </c>
     </row>
     <row r="44">
@@ -2094,7 +2094,7 @@
         <v>5.427217011828489</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>4.522717144720634</v>
+        <v>4.522717144720589</v>
       </c>
       <c r="E44" s="4" t="n">
         <v>-2.014216705287419</v>
@@ -2106,7 +2106,7 @@
         <v>-0.7396220580289325</v>
       </c>
       <c r="H44" s="3" t="n">
-        <v>9.337820276154973</v>
+        <v>9.337820276154929</v>
       </c>
       <c r="I44" s="3" t="n">
         <v>34.94372234257739</v>
@@ -2118,7 +2118,7 @@
         <v>5.979220468975877</v>
       </c>
       <c r="L44" s="4" t="n">
-        <v>-20.61893879531535</v>
+        <v>-20.61893879531537</v>
       </c>
     </row>
     <row r="45">
@@ -2126,31 +2126,31 @@
         <v>43343</v>
       </c>
       <c r="B45" s="4" t="n">
-        <v>-4.42640275230265</v>
+        <v>-4.426402752302638</v>
       </c>
       <c r="C45" s="4" t="n">
-        <v>-5.488161770734513</v>
+        <v>-5.488161770734523</v>
       </c>
       <c r="D45" s="3" t="n">
         <v>0.03818059744000735</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>-8.462343298794339</v>
+        <v>-8.462343298794329</v>
       </c>
       <c r="F45" s="4" t="n">
-        <v>-7.012896390307032</v>
+        <v>-7.012896390307056</v>
       </c>
       <c r="G45" s="4" t="n">
-        <v>-12.49227959798849</v>
+        <v>-12.4922795979885</v>
       </c>
       <c r="H45" s="3" t="n">
-        <v>26.65554064816282</v>
+        <v>26.65554064816284</v>
       </c>
       <c r="I45" s="3" t="n">
         <v>6.248961628353644</v>
       </c>
       <c r="J45" s="3" t="n">
-        <v>27.55143210175017</v>
+        <v>27.55143210175022</v>
       </c>
       <c r="K45" s="3" t="n">
         <v>13.06936683833859</v>
@@ -2164,10 +2164,10 @@
         <v>43373</v>
       </c>
       <c r="B46" s="4" t="n">
-        <v>-6.709440801177968</v>
+        <v>-6.70944080117798</v>
       </c>
       <c r="C46" s="4" t="n">
-        <v>-4.439416836849963</v>
+        <v>-4.439416836849985</v>
       </c>
       <c r="D46" s="4" t="n">
         <v>-14.08239145762446</v>
@@ -2176,13 +2176,13 @@
         <v>-10.37386245134824</v>
       </c>
       <c r="F46" s="4" t="n">
-        <v>-4.64798318321048</v>
+        <v>-4.647983183210491</v>
       </c>
       <c r="G46" s="4" t="n">
-        <v>-4.500496802360887</v>
+        <v>-4.500496802360909</v>
       </c>
       <c r="H46" s="3" t="n">
-        <v>19.18596890484581</v>
+        <v>19.18596890484576</v>
       </c>
       <c r="I46" s="4" t="n">
         <v>-26.71069651995363</v>
@@ -2194,7 +2194,7 @@
         <v>11.57991162526366</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>-30.29345502103303</v>
+        <v>-30.29345502103302</v>
       </c>
     </row>
     <row r="47">
@@ -2211,7 +2211,7 @@
         <v>16.34267541342616</v>
       </c>
       <c r="E47" s="3" t="n">
-        <v>19.73716342176779</v>
+        <v>19.73716342176777</v>
       </c>
       <c r="F47" s="3" t="n">
         <v>11.95023732555718</v>
@@ -2220,19 +2220,19 @@
         <v>15.81801106395702</v>
       </c>
       <c r="H47" s="4" t="n">
-        <v>-24.11496189109342</v>
+        <v>-24.1149618910934</v>
       </c>
       <c r="I47" s="4" t="n">
         <v>-14.10459058437205</v>
       </c>
       <c r="J47" s="4" t="n">
-        <v>-14.320568609656</v>
+        <v>-14.32056860965602</v>
       </c>
       <c r="K47" s="4" t="n">
         <v>-23.45328127833976</v>
       </c>
       <c r="L47" s="3" t="n">
-        <v>119.8006821873927</v>
+        <v>119.8006821873926</v>
       </c>
     </row>
     <row r="48">
@@ -2249,7 +2249,7 @@
         <v>-6.058149576185745</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>-6.771471301229093</v>
+        <v>-6.771471301229082</v>
       </c>
       <c r="F48" s="4" t="n">
         <v>-1.662133660075571</v>
@@ -2278,7 +2278,7 @@
         <v>43465</v>
       </c>
       <c r="B49" s="4" t="n">
-        <v>-5.088894420766332</v>
+        <v>-5.088894420766299</v>
       </c>
       <c r="C49" s="4" t="n">
         <v>-2.619785528464902</v>
@@ -2287,7 +2287,7 @@
         <v>-10.18674636872003</v>
       </c>
       <c r="E49" s="3" t="n">
-        <v>1.484572370009385</v>
+        <v>1.484572370009363</v>
       </c>
       <c r="F49" s="4" t="n">
         <v>-7.947467253492768</v>
@@ -2296,7 +2296,7 @@
         <v>-3.898535118558966</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>-22.79854170061295</v>
+        <v>-22.79854170061296</v>
       </c>
       <c r="I49" s="4" t="n">
         <v>-22.41276498890857</v>
@@ -2316,7 +2316,7 @@
         <v>43496</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>26.42450311244415</v>
+        <v>26.42450311244411</v>
       </c>
       <c r="C50" s="3" t="n">
         <v>28.37673488240742</v>
@@ -2325,7 +2325,7 @@
         <v>24.86460071232697</v>
       </c>
       <c r="E50" s="3" t="n">
-        <v>24.21864218451373</v>
+        <v>24.21864218451375</v>
       </c>
       <c r="F50" s="3" t="n">
         <v>33.37095914678323</v>
@@ -2334,7 +2334,7 @@
         <v>19.38117237129669</v>
       </c>
       <c r="H50" s="3" t="n">
-        <v>31.73250667304042</v>
+        <v>31.73250667304044</v>
       </c>
       <c r="I50" s="3" t="n">
         <v>63.8877941519481</v>
@@ -2369,10 +2369,10 @@
         <v>-7.763844359305716</v>
       </c>
       <c r="G51" s="4" t="n">
-        <v>-17.46455588095008</v>
+        <v>-17.46455588095007</v>
       </c>
       <c r="H51" s="4" t="n">
-        <v>-17.3860433030288</v>
+        <v>-17.38604330302881</v>
       </c>
       <c r="I51" s="3" t="n">
         <v>36.66010543806875</v>
@@ -2395,19 +2395,19 @@
         <v>-0.1490282739297855</v>
       </c>
       <c r="C52" s="4" t="n">
-        <v>-1.965789304747456</v>
+        <v>-1.965789304747423</v>
       </c>
       <c r="D52" s="3" t="n">
         <v>4.102664447243365</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>-7.998427163122002</v>
+        <v>-7.998427163122035</v>
       </c>
       <c r="F52" s="3" t="n">
         <v>6.219659834665014</v>
       </c>
       <c r="G52" s="4" t="n">
-        <v>-3.143946091482508</v>
+        <v>-3.14394609148253</v>
       </c>
       <c r="H52" s="3" t="n">
         <v>13.43013938066133</v>
@@ -2433,13 +2433,13 @@
         <v>-0.4678440768809966</v>
       </c>
       <c r="C53" s="3" t="n">
-        <v>1.565321254660779</v>
+        <v>1.565321254660756</v>
       </c>
       <c r="D53" s="4" t="n">
         <v>-4.771268479740664</v>
       </c>
       <c r="E53" s="3" t="n">
-        <v>6.246187271500347</v>
+        <v>6.246187271500392</v>
       </c>
       <c r="F53" s="4" t="n">
         <v>-3.576892502963591</v>
@@ -2460,7 +2460,7 @@
         <v>-21.43111412397021</v>
       </c>
       <c r="L53" s="3" t="n">
-        <v>27.47139399271699</v>
+        <v>27.47139399271701</v>
       </c>
     </row>
     <row r="54">
@@ -2486,7 +2486,7 @@
         <v>4.038573567286785</v>
       </c>
       <c r="H54" s="4" t="n">
-        <v>-6.532813829695128</v>
+        <v>-6.532813829695138</v>
       </c>
       <c r="I54" s="3" t="n">
         <v>1.431148565421436</v>
@@ -2498,7 +2498,7 @@
         <v>-14.41487668885376</v>
       </c>
       <c r="L54" s="4" t="n">
-        <v>-16.29445677466512</v>
+        <v>-16.29445677466514</v>
       </c>
     </row>
     <row r="55">
@@ -2524,7 +2524,7 @@
         <v>13.20048978430288</v>
       </c>
       <c r="H55" s="3" t="n">
-        <v>0.6339406263587088</v>
+        <v>0.6339406263587311</v>
       </c>
       <c r="I55" s="4" t="n">
         <v>-26.39301104069354</v>
@@ -2600,7 +2600,7 @@
         <v>-3.751033622226974</v>
       </c>
       <c r="H57" s="3" t="n">
-        <v>0.6513514648805341</v>
+        <v>0.6513514648805563</v>
       </c>
       <c r="I57" s="3" t="n">
         <v>1.945356367182893</v>
@@ -2638,13 +2638,13 @@
         <v>-11.05829755355244</v>
       </c>
       <c r="H58" s="3" t="n">
-        <v>5.046534436994699</v>
+        <v>5.046534436994676</v>
       </c>
       <c r="I58" s="4" t="n">
         <v>-4.460093689163513</v>
       </c>
       <c r="J58" s="3" t="n">
-        <v>4.755133011953494</v>
+        <v>4.755133011953516</v>
       </c>
       <c r="K58" s="4" t="n">
         <v>-3.327290061728028</v>
@@ -2676,13 +2676,13 @@
         <v>12.36758249783867</v>
       </c>
       <c r="H59" s="3" t="n">
-        <v>6.478576787355395</v>
+        <v>6.478576787355417</v>
       </c>
       <c r="I59" s="3" t="n">
         <v>15.30327870489374</v>
       </c>
       <c r="J59" s="4" t="n">
-        <v>-16.44818746001795</v>
+        <v>-16.44818746001796</v>
       </c>
       <c r="K59" s="3" t="n">
         <v>37.68181032541198</v>
@@ -2708,7 +2708,7 @@
         <v>-11.1250150996944</v>
       </c>
       <c r="F60" s="4" t="n">
-        <v>-12.09754695526221</v>
+        <v>-12.09754695526223</v>
       </c>
       <c r="G60" s="4" t="n">
         <v>-22.31999794699361</v>
@@ -2878,7 +2878,7 @@
         <v>48.65427803295541</v>
       </c>
       <c r="L64" s="3" t="n">
-        <v>60.55843785120472</v>
+        <v>60.55843785120474</v>
       </c>
     </row>
     <row r="65">
@@ -2904,7 +2904,7 @@
         <v>-14.71647271281282</v>
       </c>
       <c r="H65" s="4" t="n">
-        <v>-1.734408020869582</v>
+        <v>-1.734408020869593</v>
       </c>
       <c r="I65" s="4" t="n">
         <v>-41.78104463781296</v>
@@ -2942,7 +2942,7 @@
         <v>30.06298178916935</v>
       </c>
       <c r="H66" s="4" t="n">
-        <v>-13.11709530472077</v>
+        <v>-13.11709530472076</v>
       </c>
       <c r="I66" s="3" t="n">
         <v>10.4928210583072</v>
@@ -2954,7 +2954,7 @@
         <v>14.64730036484709</v>
       </c>
       <c r="L66" s="4" t="n">
-        <v>-31.98138186408497</v>
+        <v>-31.98138186408496</v>
       </c>
     </row>
     <row r="67">
@@ -2992,7 +2992,7 @@
         <v>4.754083089970962</v>
       </c>
       <c r="L67" s="3" t="n">
-        <v>68.58996643561778</v>
+        <v>68.58996643561774</v>
       </c>
     </row>
     <row r="68">
@@ -3024,13 +3024,13 @@
         <v>-42.64076371396551</v>
       </c>
       <c r="J68" s="3" t="n">
-        <v>65.38286030221536</v>
+        <v>65.38286030221543</v>
       </c>
       <c r="K68" s="3" t="n">
         <v>2.358599144620777</v>
       </c>
       <c r="L68" s="4" t="n">
-        <v>-27.84879600648156</v>
+        <v>-27.84879600648155</v>
       </c>
     </row>
     <row r="69">
@@ -3062,7 +3062,7 @@
         <v>-6.180875539263109</v>
       </c>
       <c r="J69" s="4" t="n">
-        <v>-44.43069259484699</v>
+        <v>-44.430692594847</v>
       </c>
       <c r="K69" s="4" t="n">
         <v>-23.53354514950296</v>
@@ -3076,7 +3076,7 @@
         <v>44104</v>
       </c>
       <c r="B70" s="4" t="n">
-        <v>-7.27358708452801</v>
+        <v>-7.273587084527988</v>
       </c>
       <c r="C70" s="4" t="n">
         <v>-9.614345690586424</v>
@@ -3088,7 +3088,7 @@
         <v>-6.495298536065198</v>
       </c>
       <c r="F70" s="4" t="n">
-        <v>-6.684446661963772</v>
+        <v>-6.684446661963738</v>
       </c>
       <c r="G70" s="4" t="n">
         <v>-4.041758678281948</v>
@@ -3106,7 +3106,7 @@
         <v>15.67541060715847</v>
       </c>
       <c r="L70" s="3" t="n">
-        <v>59.84644979645726</v>
+        <v>59.84644979645724</v>
       </c>
     </row>
     <row r="71">
@@ -3114,7 +3114,7 @@
         <v>44135</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>11.5604440077089</v>
+        <v>11.56044400770888</v>
       </c>
       <c r="C71" s="3" t="n">
         <v>11.0262658199735</v>
@@ -3126,7 +3126,7 @@
         <v>13.25050965007948</v>
       </c>
       <c r="F71" s="3" t="n">
-        <v>10.54364198211939</v>
+        <v>10.54364198211937</v>
       </c>
       <c r="G71" s="3" t="n">
         <v>16.54266422695847</v>
@@ -3138,7 +3138,7 @@
         <v>3.254136356457327</v>
       </c>
       <c r="J71" s="3" t="n">
-        <v>78.6190240501379</v>
+        <v>78.61902405013782</v>
       </c>
       <c r="K71" s="3" t="n">
         <v>24.59700975890917</v>
@@ -3152,7 +3152,7 @@
         <v>44165</v>
       </c>
       <c r="B72" s="4" t="n">
-        <v>-15.81756760988929</v>
+        <v>-15.81756760988926</v>
       </c>
       <c r="C72" s="4" t="n">
         <v>-15.35275270373739</v>
@@ -3164,7 +3164,7 @@
         <v>-19.18527774088501</v>
       </c>
       <c r="F72" s="4" t="n">
-        <v>-14.59337596425568</v>
+        <v>-14.5933759642557</v>
       </c>
       <c r="G72" s="4" t="n">
         <v>-19.07876371071826</v>
@@ -3176,7 +3176,7 @@
         <v>-38.44392523164173</v>
       </c>
       <c r="J72" s="4" t="n">
-        <v>-37.50397536899804</v>
+        <v>-37.50397536899803</v>
       </c>
       <c r="K72" s="4" t="n">
         <v>-41.08014670819696</v>
@@ -3190,7 +3190,7 @@
         <v>44196</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>8.034078229273689</v>
+        <v>8.034078229273668</v>
       </c>
       <c r="C73" s="3" t="n">
         <v>5.984298846417913</v>
@@ -3214,7 +3214,7 @@
         <v>-10.97399608124908</v>
       </c>
       <c r="J73" s="3" t="n">
-        <v>22.58411997986627</v>
+        <v>22.58411997986629</v>
       </c>
       <c r="K73" s="3" t="n">
         <v>31.89342070401015</v>
@@ -3228,7 +3228,7 @@
         <v>44227</v>
       </c>
       <c r="B74" s="4" t="n">
-        <v>-7.386390599589332</v>
+        <v>-7.386390599589343</v>
       </c>
       <c r="C74" s="4" t="n">
         <v>-8.225905360525598</v>
@@ -3252,13 +3252,13 @@
         <v>-6.230254786882083</v>
       </c>
       <c r="J74" s="4" t="n">
-        <v>-10.21523006337415</v>
+        <v>-10.21523006337418</v>
       </c>
       <c r="K74" s="4" t="n">
         <v>-16.30925354003761</v>
       </c>
       <c r="L74" s="4" t="n">
-        <v>-37.02014647782206</v>
+        <v>-37.02014647782207</v>
       </c>
     </row>
     <row r="75">
@@ -3278,7 +3278,7 @@
         <v>4.988318758972943</v>
       </c>
       <c r="F75" s="4" t="n">
-        <v>-14.17463685567799</v>
+        <v>-14.17463685567798</v>
       </c>
       <c r="G75" s="4" t="n">
         <v>-0.7482498630932422</v>
@@ -3304,10 +3304,10 @@
         <v>44286</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>23.16515542686817</v>
+        <v>23.17915464889895</v>
       </c>
       <c r="C76" s="3" t="n">
-        <v>19.81456387783349</v>
+        <v>19.84908262282852</v>
       </c>
       <c r="D76" s="3" t="n">
         <v>27.07562075547392</v>
@@ -3334,7 +3334,7 @@
         <v>21.43172422115918</v>
       </c>
       <c r="L76" s="3" t="n">
-        <v>9.888064437580013</v>
+        <v>9.888064437580057</v>
       </c>
     </row>
     <row r="77">
@@ -3342,10 +3342,10 @@
         <v>44316</v>
       </c>
       <c r="B77" s="4" t="n">
-        <v>-6.857116668596852</v>
+        <v>-6.867702290068722</v>
       </c>
       <c r="C77" s="4" t="n">
-        <v>-7.663586156109348</v>
+        <v>-7.690180745350084</v>
       </c>
       <c r="D77" s="4" t="n">
         <v>-1.856388690609023</v>
@@ -3354,7 +3354,7 @@
         <v>-12.68171083024434</v>
       </c>
       <c r="F77" s="4" t="n">
-        <v>-0.9666314816414778</v>
+        <v>-0.9666314816414556</v>
       </c>
       <c r="G77" s="4" t="n">
         <v>-2.183965636619045</v>
@@ -3366,13 +3366,13 @@
         <v>-29.28581714685652</v>
       </c>
       <c r="J77" s="4" t="n">
-        <v>-44.52929856593548</v>
+        <v>-44.52929856593547</v>
       </c>
       <c r="K77" s="4" t="n">
         <v>-57.42422701732253</v>
       </c>
       <c r="L77" s="3" t="n">
-        <v>21.09224762310042</v>
+        <v>21.09224762310036</v>
       </c>
     </row>
     <row r="78">
@@ -3380,7 +3380,7 @@
         <v>44347</v>
       </c>
       <c r="B78" s="4" t="n">
-        <v>-1.821498938862287</v>
+        <v>-1.821498938862309</v>
       </c>
       <c r="C78" s="3" t="n">
         <v>0.2486049272837132</v>
@@ -3392,7 +3392,7 @@
         <v>11.49711622730218</v>
       </c>
       <c r="F78" s="4" t="n">
-        <v>-11.34513153298873</v>
+        <v>-11.34513153298875</v>
       </c>
       <c r="G78" s="4" t="n">
         <v>-9.684815406383407</v>
@@ -3404,7 +3404,7 @@
         <v>5.700736346805457</v>
       </c>
       <c r="J78" s="4" t="n">
-        <v>-0.7600067235658314</v>
+        <v>-0.7600067235658536</v>
       </c>
       <c r="K78" s="3" t="n">
         <v>70.90778021436279</v>
@@ -3418,7 +3418,7 @@
         <v>44377</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>3.60157795555951</v>
+        <v>3.601577955559487</v>
       </c>
       <c r="C79" s="3" t="n">
         <v>6.004891954328873</v>
@@ -3430,7 +3430,7 @@
         <v>-1.736544156493602</v>
       </c>
       <c r="F79" s="3" t="n">
-        <v>5.48612751787374</v>
+        <v>5.486127517873784</v>
       </c>
       <c r="G79" s="3" t="n">
         <v>2.908719105233004</v>
@@ -3442,7 +3442,7 @@
         <v>-2.937022608154949</v>
       </c>
       <c r="J79" s="4" t="n">
-        <v>-0.7345048332190851</v>
+        <v>-0.7345048332190407</v>
       </c>
       <c r="K79" s="4" t="n">
         <v>-3.270360644203796</v>
@@ -3456,7 +3456,7 @@
         <v>44408</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>0.9207273175614317</v>
+        <v>0.9207273175614539</v>
       </c>
       <c r="C80" s="3" t="n">
         <v>1.083478524437043</v>
@@ -3468,7 +3468,7 @@
         <v>1.950872779333745</v>
       </c>
       <c r="F80" s="3" t="n">
-        <v>0.9018000901152678</v>
+        <v>0.9018000901152456</v>
       </c>
       <c r="G80" s="3" t="n">
         <v>2.020354192328</v>
@@ -3480,13 +3480,13 @@
         <v>45.4709663513903</v>
       </c>
       <c r="J80" s="3" t="n">
-        <v>4.465509182464</v>
+        <v>4.465509182463978</v>
       </c>
       <c r="K80" s="3" t="n">
         <v>21.66357518380833</v>
       </c>
       <c r="L80" s="3" t="n">
-        <v>67.82616209170875</v>
+        <v>67.82616209170878</v>
       </c>
     </row>
     <row r="81">
@@ -3518,7 +3518,7 @@
         <v>17.45330399478349</v>
       </c>
       <c r="J81" s="3" t="n">
-        <v>53.8272673172342</v>
+        <v>53.82726731723413</v>
       </c>
       <c r="K81" s="4" t="n">
         <v>-13.06461389423514</v>
@@ -3556,13 +3556,13 @@
         <v>-48.41455887565434</v>
       </c>
       <c r="J82" s="4" t="n">
-        <v>-23.14670446664171</v>
+        <v>-23.1467044666417</v>
       </c>
       <c r="K82" s="4" t="n">
         <v>-21.88310198237528</v>
       </c>
       <c r="L82" s="4" t="n">
-        <v>-26.54482888430624</v>
+        <v>-26.54482888430626</v>
       </c>
     </row>
     <row r="83">
@@ -3570,7 +3570,7 @@
         <v>44500</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>1.074809915302755</v>
+        <v>1.074809915302732</v>
       </c>
       <c r="C83" s="3" t="n">
         <v>0.3519089024269118</v>
@@ -3632,7 +3632,7 @@
         <v>16.48828857844602</v>
       </c>
       <c r="J84" s="3" t="n">
-        <v>22.90711958517129</v>
+        <v>22.90711958517127</v>
       </c>
       <c r="K84" s="3" t="n">
         <v>49.47803454489477</v>
@@ -3646,10 +3646,10 @@
         <v>44561</v>
       </c>
       <c r="B85" s="4" t="n">
-        <v>-4.893754171479703</v>
+        <v>-4.870684130041624</v>
       </c>
       <c r="C85" s="4" t="n">
-        <v>-8.279100874388712</v>
+        <v>-8.222830384127588</v>
       </c>
       <c r="D85" s="4" t="n">
         <v>-7.448486828398904</v>
@@ -3670,7 +3670,7 @@
         <v>21.23941779435521</v>
       </c>
       <c r="J85" s="4" t="n">
-        <v>-12.20356926978817</v>
+        <v>-12.20356926978816</v>
       </c>
       <c r="K85" s="4" t="n">
         <v>-18.51101656001505</v>
@@ -3684,22 +3684,22 @@
         <v>44592</v>
       </c>
       <c r="B86" s="4" t="n">
-        <v>-6.864542917072147</v>
+        <v>-6.875019542549587</v>
       </c>
       <c r="C86" s="4" t="n">
-        <v>-6.112046544528016</v>
+        <v>-6.169611200233405</v>
       </c>
       <c r="D86" s="4" t="n">
         <v>-8.23516342449706</v>
       </c>
       <c r="E86" s="4" t="n">
-        <v>-5.055921967061416</v>
+        <v>-4.86546243239151</v>
       </c>
       <c r="F86" s="4" t="n">
         <v>-4.628833048491076</v>
       </c>
       <c r="G86" s="4" t="n">
-        <v>-11.05623954014247</v>
+        <v>-11.16797793267999</v>
       </c>
       <c r="H86" s="4" t="n">
         <v>-5.888734085607961</v>
@@ -3708,7 +3708,7 @@
         <v>-19.73127149240691</v>
       </c>
       <c r="J86" s="4" t="n">
-        <v>-0.750618728591268</v>
+        <v>-0.7506187285912791</v>
       </c>
       <c r="K86" s="3" t="n">
         <v>2.921154088957678</v>
@@ -3722,22 +3722,22 @@
         <v>44620</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>0.2204664715347304</v>
+        <v>0.1554793015624334</v>
       </c>
       <c r="C87" s="4" t="n">
-        <v>-0.3349089769503433</v>
+        <v>-0.4002417144285841</v>
       </c>
       <c r="D87" s="4" t="n">
-        <v>-0.9777921481623486</v>
+        <v>-1.036246816315745</v>
       </c>
       <c r="E87" s="4" t="n">
-        <v>-8.511302490420213</v>
+        <v>-8.594456981423216</v>
       </c>
       <c r="F87" s="4" t="n">
-        <v>-8.219542054986528</v>
+        <v>-8.360309628521822</v>
       </c>
       <c r="G87" s="3" t="n">
-        <v>21.62176377149105</v>
+        <v>21.64920614573247</v>
       </c>
       <c r="H87" s="4" t="n">
         <v>-0.4088194946535895</v>
@@ -3752,7 +3752,7 @@
         <v>25.24366453412159</v>
       </c>
       <c r="L87" s="3" t="n">
-        <v>8.986041733031325</v>
+        <v>5.95865168489158</v>
       </c>
     </row>
     <row r="88">
@@ -3760,22 +3760,22 @@
         <v>44651</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>12.54322275778494</v>
+        <v>12.58865172353438</v>
       </c>
       <c r="C88" s="3" t="n">
-        <v>14.90165068970359</v>
+        <v>15.04260946282354</v>
       </c>
       <c r="D88" s="3" t="n">
-        <v>12.19798405634669</v>
+        <v>12.20529343475976</v>
       </c>
       <c r="E88" s="3" t="n">
-        <v>18.82478089745161</v>
+        <v>18.69477566671043</v>
       </c>
       <c r="F88" s="3" t="n">
-        <v>19.40675569355687</v>
+        <v>19.28314109699642</v>
       </c>
       <c r="G88" s="3" t="n">
-        <v>1.63773278868069</v>
+        <v>1.536665364926049</v>
       </c>
       <c r="H88" s="3" t="n">
         <v>2.422688572482978</v>
@@ -3787,10 +3787,10 @@
         <v>-14.92704199655707</v>
       </c>
       <c r="K88" s="4" t="n">
-        <v>-7.165561998441216</v>
+        <v>-5.055688407496694</v>
       </c>
       <c r="L88" s="4" t="n">
-        <v>-33.40454944649866</v>
+        <v>-31.5018222878272</v>
       </c>
     </row>
     <row r="89">
@@ -3798,25 +3798,25 @@
         <v>44681</v>
       </c>
       <c r="B89" s="4" t="n">
-        <v>-4.318721161789741</v>
+        <v>-4.342181603389594</v>
       </c>
       <c r="C89" s="4" t="n">
-        <v>-7.853420010394241</v>
+        <v>-7.962961646029576</v>
       </c>
       <c r="D89" s="4" t="n">
-        <v>-1.115151885981269</v>
+        <v>-0.9582721907628655</v>
       </c>
       <c r="E89" s="4" t="n">
         <v>-3.688245377646859</v>
       </c>
       <c r="F89" s="4" t="n">
-        <v>-6.72868984595697</v>
+        <v>-6.874488445065873</v>
       </c>
       <c r="G89" s="3" t="n">
-        <v>3.835010987429666</v>
+        <v>3.84320626694501</v>
       </c>
       <c r="H89" s="4" t="n">
-        <v>-18.6033554159691</v>
+        <v>-17.55532994922193</v>
       </c>
       <c r="I89" s="3" t="n">
         <v>59.77219830399692</v>
@@ -3824,11 +3824,505 @@
       <c r="J89" s="3" t="n">
         <v>26.85401303495521</v>
       </c>
-      <c r="K89" s="3" t="n">
-        <v>2.492716057086297</v>
+      <c r="K89" s="4" t="n">
+        <v>-0.8984009680123695</v>
       </c>
       <c r="L89" s="3" t="n">
-        <v>33.1949591095085</v>
+        <v>33.19495910950847</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>44712</v>
+      </c>
+      <c r="B90" s="3" t="n">
+        <v>6.791183463269701</v>
+      </c>
+      <c r="C90" s="3" t="n">
+        <v>8.286999324657152</v>
+      </c>
+      <c r="D90" s="3" t="n">
+        <v>5.744270653101591</v>
+      </c>
+      <c r="E90" s="3" t="n">
+        <v>8.482957294377226</v>
+      </c>
+      <c r="F90" s="4" t="n">
+        <v>-0.05832748323414405</v>
+      </c>
+      <c r="G90" s="3" t="n">
+        <v>5.819943381396486</v>
+      </c>
+      <c r="H90" s="3" t="n">
+        <v>7.984350617452463</v>
+      </c>
+      <c r="I90" s="4" t="n">
+        <v>-9.506361517620988</v>
+      </c>
+      <c r="J90" s="3" t="n">
+        <v>7.885129967439908</v>
+      </c>
+      <c r="K90" s="3" t="n">
+        <v>32.88335510629155</v>
+      </c>
+      <c r="L90" s="4" t="n">
+        <v>-12.59419438729474</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B91" s="4" t="n">
+        <v>-5.869385729428755</v>
+      </c>
+      <c r="C91" s="4" t="n">
+        <v>-8.647207289718228</v>
+      </c>
+      <c r="D91" s="4" t="n">
+        <v>-7.90865617169163</v>
+      </c>
+      <c r="E91" s="4" t="n">
+        <v>-8.535519693504035</v>
+      </c>
+      <c r="F91" s="4" t="n">
+        <v>-0.74582870983676</v>
+      </c>
+      <c r="G91" s="3" t="n">
+        <v>2.733571992486405</v>
+      </c>
+      <c r="H91" s="3" t="n">
+        <v>10.06359251424485</v>
+      </c>
+      <c r="I91" s="3" t="n">
+        <v>15.35760958714005</v>
+      </c>
+      <c r="J91" s="4" t="n">
+        <v>-0.7204685750451079</v>
+      </c>
+      <c r="K91" s="4" t="n">
+        <v>-18.46385352479414</v>
+      </c>
+      <c r="L91" s="4" t="n">
+        <v>-10.80765876917073</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>44773</v>
+      </c>
+      <c r="B92" s="4" t="n">
+        <v>-3.18878390960734</v>
+      </c>
+      <c r="C92" s="4" t="n">
+        <v>-5.490169034068526</v>
+      </c>
+      <c r="D92" s="3" t="n">
+        <v>4.150309717845313</v>
+      </c>
+      <c r="E92" s="3" t="n">
+        <v>1.335282626789747</v>
+      </c>
+      <c r="F92" s="4" t="n">
+        <v>-5.338717259000259</v>
+      </c>
+      <c r="G92" s="4" t="n">
+        <v>-8.136565194233714</v>
+      </c>
+      <c r="H92" s="4" t="n">
+        <v>-8.893770758171172</v>
+      </c>
+      <c r="I92" s="4" t="n">
+        <v>-9.08327070897419</v>
+      </c>
+      <c r="J92" s="3" t="n">
+        <v>38.95966409018556</v>
+      </c>
+      <c r="K92" s="4" t="n">
+        <v>-31.09032717597261</v>
+      </c>
+      <c r="L92" s="4" t="n">
+        <v>-20.08677724767777</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="B93" s="3" t="n">
+        <v>8.194565532807975</v>
+      </c>
+      <c r="C93" s="3" t="n">
+        <v>9.553625720711922</v>
+      </c>
+      <c r="D93" s="3" t="n">
+        <v>0.7032223995187215</v>
+      </c>
+      <c r="E93" s="3" t="n">
+        <v>7.463699604095209</v>
+      </c>
+      <c r="F93" s="3" t="n">
+        <v>11.24489361688994</v>
+      </c>
+      <c r="G93" s="3" t="n">
+        <v>12.28182085438752</v>
+      </c>
+      <c r="H93" s="3" t="n">
+        <v>18.38227836896882</v>
+      </c>
+      <c r="I93" s="3" t="n">
+        <v>11.32105538879917</v>
+      </c>
+      <c r="J93" s="3" t="n">
+        <v>13.43798073512121</v>
+      </c>
+      <c r="K93" s="3" t="n">
+        <v>38.20373285662235</v>
+      </c>
+      <c r="L93" s="3" t="n">
+        <v>64.82033726862517</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>44834</v>
+      </c>
+      <c r="B94" s="4" t="n">
+        <v>-6.631463356481426</v>
+      </c>
+      <c r="C94" s="4" t="n">
+        <v>-6.753114045806063</v>
+      </c>
+      <c r="D94" s="4" t="n">
+        <v>-1.355159422568408</v>
+      </c>
+      <c r="E94" s="4" t="n">
+        <v>-13.9952603479046</v>
+      </c>
+      <c r="F94" s="4" t="n">
+        <v>-10.99713153304682</v>
+      </c>
+      <c r="G94" s="4" t="n">
+        <v>-8.800100393881415</v>
+      </c>
+      <c r="H94" s="3" t="n">
+        <v>1.503031146928668</v>
+      </c>
+      <c r="I94" s="3" t="n">
+        <v>30.70967052679308</v>
+      </c>
+      <c r="J94" s="4" t="n">
+        <v>-0.7166476392342913</v>
+      </c>
+      <c r="K94" s="4" t="n">
+        <v>-15.18886282050838</v>
+      </c>
+      <c r="L94" s="4" t="n">
+        <v>-36.43094428136487</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>44865</v>
+      </c>
+      <c r="B95" s="3" t="n">
+        <v>1.106527256549183</v>
+      </c>
+      <c r="C95" s="3" t="n">
+        <v>0.4372670499345643</v>
+      </c>
+      <c r="D95" s="4" t="n">
+        <v>-4.65239599941103</v>
+      </c>
+      <c r="E95" s="3" t="n">
+        <v>3.879353817048714</v>
+      </c>
+      <c r="F95" s="3" t="n">
+        <v>6.016815341993453</v>
+      </c>
+      <c r="G95" s="3" t="n">
+        <v>7.801678214497332</v>
+      </c>
+      <c r="H95" s="3" t="n">
+        <v>3.670665641552451</v>
+      </c>
+      <c r="I95" s="4" t="n">
+        <v>-4.622557599823196</v>
+      </c>
+      <c r="J95" s="4" t="n">
+        <v>-52.851080653662</v>
+      </c>
+      <c r="K95" s="3" t="n">
+        <v>27.58133530865603</v>
+      </c>
+      <c r="L95" s="3" t="n">
+        <v>4.646982345218653</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>44895</v>
+      </c>
+      <c r="B96" s="4" t="n">
+        <v>-5.23931731222228</v>
+      </c>
+      <c r="C96" s="4" t="n">
+        <v>-5.048083758001864</v>
+      </c>
+      <c r="D96" s="4" t="n">
+        <v>-6.273035824578765</v>
+      </c>
+      <c r="E96" s="3" t="n">
+        <v>3.926512260189452</v>
+      </c>
+      <c r="F96" s="4" t="n">
+        <v>-6.053903875689315</v>
+      </c>
+      <c r="G96" s="4" t="n">
+        <v>-11.26315982010205</v>
+      </c>
+      <c r="H96" s="4" t="n">
+        <v>-3.176345459317154</v>
+      </c>
+      <c r="I96" s="4" t="n">
+        <v>-9.527565931291914</v>
+      </c>
+      <c r="J96" s="3" t="n">
+        <v>25.4138150973005</v>
+      </c>
+      <c r="K96" s="4" t="n">
+        <v>-18.17308422515236</v>
+      </c>
+      <c r="L96" s="3" t="n">
+        <v>8.974669679151726</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>44926</v>
+      </c>
+      <c r="B97" s="4" t="n">
+        <v>-5.279437016994482</v>
+      </c>
+      <c r="C97" s="4" t="n">
+        <v>-5.553799974150575</v>
+      </c>
+      <c r="D97" s="4" t="n">
+        <v>-3.021569494431842</v>
+      </c>
+      <c r="E97" s="4" t="n">
+        <v>-4.3531461862362</v>
+      </c>
+      <c r="F97" s="4" t="n">
+        <v>-5.547154522240372</v>
+      </c>
+      <c r="G97" s="4" t="n">
+        <v>-5.39348592776947</v>
+      </c>
+      <c r="H97" s="4" t="n">
+        <v>-12.3461827671724</v>
+      </c>
+      <c r="I97" s="4" t="n">
+        <v>-24.77323336726788</v>
+      </c>
+      <c r="J97" s="4" t="n">
+        <v>-9.00839179084787</v>
+      </c>
+      <c r="K97" s="4" t="n">
+        <v>-2.256860357429336</v>
+      </c>
+      <c r="L97" s="4" t="n">
+        <v>-0.1105050755461412</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B98" s="3" t="n">
+        <v>6.523464923724442</v>
+      </c>
+      <c r="C98" s="3" t="n">
+        <v>1.922346819879905</v>
+      </c>
+      <c r="D98" s="3" t="n">
+        <v>7.163440615820083</v>
+      </c>
+      <c r="E98" s="3" t="n">
+        <v>11.23627831880631</v>
+      </c>
+      <c r="F98" s="3" t="n">
+        <v>17.39248018856905</v>
+      </c>
+      <c r="G98" s="3" t="n">
+        <v>2.700203908515286</v>
+      </c>
+      <c r="H98" s="3" t="n">
+        <v>7.016196498729022</v>
+      </c>
+      <c r="I98" s="3" t="n">
+        <v>15.36955594257379</v>
+      </c>
+      <c r="J98" s="3" t="n">
+        <v>80.48173439574515</v>
+      </c>
+      <c r="K98" s="3" t="n">
+        <v>27.2440849591842</v>
+      </c>
+      <c r="L98" s="3" t="n">
+        <v>16.53726854463633</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>44985</v>
+      </c>
+      <c r="B99" s="4" t="n">
+        <v>-2.775239146716102</v>
+      </c>
+      <c r="C99" s="4" t="n">
+        <v>-0.7938484757255559</v>
+      </c>
+      <c r="D99" s="4" t="n">
+        <v>-2.053727689707152</v>
+      </c>
+      <c r="E99" s="4" t="n">
+        <v>-5.496939079647579</v>
+      </c>
+      <c r="F99" s="4" t="n">
+        <v>-0.7146993018619652</v>
+      </c>
+      <c r="G99" s="4" t="n">
+        <v>-2.788948615630005</v>
+      </c>
+      <c r="H99" s="4" t="n">
+        <v>-10.00175951804118</v>
+      </c>
+      <c r="I99" s="4" t="n">
+        <v>-31.42131408106998</v>
+      </c>
+      <c r="J99" s="4" t="n">
+        <v>-18.04693669018007</v>
+      </c>
+      <c r="K99" s="4" t="n">
+        <v>-7.868037082547364</v>
+      </c>
+      <c r="L99" s="3" t="n">
+        <v>10.60298053859889</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>45016</v>
+      </c>
+      <c r="B100" s="3" t="n">
+        <v>16.90362532187766</v>
+      </c>
+      <c r="C100" s="3" t="n">
+        <v>16.2574016146789</v>
+      </c>
+      <c r="D100" s="3" t="n">
+        <v>21.52943663706068</v>
+      </c>
+      <c r="E100" s="3" t="n">
+        <v>10.94315420334688</v>
+      </c>
+      <c r="F100" s="3" t="n">
+        <v>8.975437167575272</v>
+      </c>
+      <c r="G100" s="3" t="n">
+        <v>18.48943723718741</v>
+      </c>
+      <c r="H100" s="3" t="n">
+        <v>27.36602498890552</v>
+      </c>
+      <c r="I100" s="3" t="n">
+        <v>84.55383818754156</v>
+      </c>
+      <c r="J100" s="4" t="n">
+        <v>-3.740501316048583</v>
+      </c>
+      <c r="K100" s="3" t="n">
+        <v>9.073768151620865</v>
+      </c>
+      <c r="L100" s="4" t="n">
+        <v>-3.333888038708033</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45046</v>
+      </c>
+      <c r="B101" s="4" t="n">
+        <v>-13.46293733062971</v>
+      </c>
+      <c r="C101" s="4" t="n">
+        <v>-12.73612194786735</v>
+      </c>
+      <c r="D101" s="4" t="n">
+        <v>-13.5376016096723</v>
+      </c>
+      <c r="E101" s="4" t="n">
+        <v>-16.03426672847881</v>
+      </c>
+      <c r="F101" s="4" t="n">
+        <v>-11.78462971756747</v>
+      </c>
+      <c r="G101" s="4" t="n">
+        <v>-12.70479669543625</v>
+      </c>
+      <c r="H101" s="4" t="n">
+        <v>-15.3123698064802</v>
+      </c>
+      <c r="I101" s="4" t="n">
+        <v>-33.02017330885928</v>
+      </c>
+      <c r="J101" s="3" t="n">
+        <v>21.01272164416537</v>
+      </c>
+      <c r="K101" s="4" t="n">
+        <v>-13.92266318765597</v>
+      </c>
+      <c r="L101" s="4" t="n">
+        <v>-3.438185273153349</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45077</v>
+      </c>
+      <c r="B102" s="3" t="n">
+        <v>11.29362894801025</v>
+      </c>
+      <c r="C102" s="3" t="n">
+        <v>11.98874051168406</v>
+      </c>
+      <c r="D102" s="3" t="n">
+        <v>8.849572607921786</v>
+      </c>
+      <c r="E102" s="3" t="n">
+        <v>20.15555007766083</v>
+      </c>
+      <c r="F102" s="3" t="n">
+        <v>12.27100100334306</v>
+      </c>
+      <c r="G102" s="3" t="n">
+        <v>1.501263584265478</v>
+      </c>
+      <c r="H102" s="3" t="n">
+        <v>11.32223340661904</v>
+      </c>
+      <c r="I102" s="3" t="n">
+        <v>73.47638803142438</v>
+      </c>
+      <c r="J102" s="4" t="n">
+        <v>-21.09277130174563</v>
+      </c>
+      <c r="K102" s="3" t="n">
+        <v>20.32024243290644</v>
+      </c>
+      <c r="L102" s="3" t="n">
+        <v>17.10951042893731</v>
       </c>
     </row>
   </sheetData>

--- a/Cambio porcentual de delitos en ZMG.xlsx
+++ b/Cambio porcentual de delitos en ZMG.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L102"/>
+  <dimension ref="A1:L106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -674,7 +674,7 @@
         <v>8.564809470902034</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>24.90954782979773</v>
+        <v>24.90954782979775</v>
       </c>
     </row>
     <row r="7">
@@ -732,7 +732,7 @@
         <v>-3.654992499925058</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>-4.279657477054821</v>
+        <v>-4.279657477054799</v>
       </c>
       <c r="G8" s="4" t="n">
         <v>-19.01793442958433</v>
@@ -750,7 +750,7 @@
         <v>45.45304379926121</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>-0.07327717406588885</v>
+        <v>-0.07327717406589995</v>
       </c>
     </row>
     <row r="9">
@@ -770,7 +770,7 @@
         <v>-3.945947019172358</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>-6.490455107562565</v>
+        <v>-6.490455107562576</v>
       </c>
       <c r="G9" s="3" t="n">
         <v>15.45177569217979</v>
@@ -840,7 +840,7 @@
         <v>22.22216729983961</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>17.06026850668934</v>
+        <v>17.06026850668938</v>
       </c>
       <c r="E11" s="3" t="n">
         <v>25.88175222319573</v>
@@ -878,13 +878,13 @@
         <v>-11.84150019736997</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>-13.10314714461891</v>
+        <v>-13.10314714461893</v>
       </c>
       <c r="E12" s="4" t="n">
         <v>-11.46100637794247</v>
       </c>
       <c r="F12" s="4" t="n">
-        <v>-11.92981352441285</v>
+        <v>-11.92981352441284</v>
       </c>
       <c r="G12" s="4" t="n">
         <v>-6.031259011547641</v>
@@ -902,7 +902,7 @@
         <v>24.50080578309961</v>
       </c>
       <c r="L12" s="4" t="n">
-        <v>-12.56359613325223</v>
+        <v>-12.56359613325224</v>
       </c>
     </row>
     <row r="13">
@@ -916,13 +916,13 @@
         <v>-0.3018136229865021</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>-9.302789328739291</v>
+        <v>-9.30278932873928</v>
       </c>
       <c r="E13" s="4" t="n">
         <v>-1.357597692284196</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>14.79821316656298</v>
+        <v>14.79821316656296</v>
       </c>
       <c r="G13" s="4" t="n">
         <v>-7.023823876758373</v>
@@ -940,7 +940,7 @@
         <v>-36.058110947165</v>
       </c>
       <c r="L13" s="4" t="n">
-        <v>-28.62539649628722</v>
+        <v>-28.6253964962872</v>
       </c>
     </row>
     <row r="14">
@@ -954,7 +954,7 @@
         <v>-2.742423110917025</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>3.00637633582912</v>
+        <v>3.006376335829097</v>
       </c>
       <c r="E14" s="3" t="n">
         <v>0.03745724219819113</v>
@@ -992,7 +992,7 @@
         <v>-10.35265180196446</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>-10.71095780367902</v>
+        <v>-10.710957803679</v>
       </c>
       <c r="E15" s="4" t="n">
         <v>-7.565000957644052</v>
@@ -1027,16 +1027,16 @@
         <v>7.362745746376298</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>6.020582802700769</v>
+        <v>6.020582802700813</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>11.82954208438831</v>
+        <v>11.82954208438829</v>
       </c>
       <c r="E16" s="3" t="n">
         <v>1.723791409410524</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>12.58080683650893</v>
+        <v>12.58080683650895</v>
       </c>
       <c r="G16" s="3" t="n">
         <v>4.924489601792792</v>
@@ -1065,7 +1065,7 @@
         <v>15.46057487739914</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>16.64008099083471</v>
+        <v>16.64008099083467</v>
       </c>
       <c r="D17" s="3" t="n">
         <v>21.32207813685325</v>
@@ -1074,7 +1074,7 @@
         <v>23.97742874920809</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>17.39380644301991</v>
+        <v>17.39380644301989</v>
       </c>
       <c r="G17" s="4" t="n">
         <v>-3.688099470287109</v>
@@ -1092,7 +1092,7 @@
         <v>-7.917105602773167</v>
       </c>
       <c r="L17" s="3" t="n">
-        <v>3.370843638606758</v>
+        <v>3.370843638606735</v>
       </c>
     </row>
     <row r="18">
@@ -1103,10 +1103,10 @@
         <v>-8.582319927642057</v>
       </c>
       <c r="C18" s="4" t="n">
-        <v>-10.12754983915267</v>
+        <v>-10.12754983915266</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>-10.21548401183653</v>
+        <v>-10.21548401183654</v>
       </c>
       <c r="E18" s="4" t="n">
         <v>-6.972159713978421</v>
@@ -1130,7 +1130,7 @@
         <v>-15.49669694377226</v>
       </c>
       <c r="L18" s="3" t="n">
-        <v>29.89887047640669</v>
+        <v>29.89887047640674</v>
       </c>
     </row>
     <row r="19">
@@ -1141,16 +1141,16 @@
         <v>64.74732074505096</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>81.77704980537639</v>
+        <v>81.77704980537645</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>59.26975106335859</v>
+        <v>59.26975106335857</v>
       </c>
       <c r="E19" s="3" t="n">
         <v>60.97850216711858</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>42.75873703620761</v>
+        <v>42.75873703620765</v>
       </c>
       <c r="G19" s="3" t="n">
         <v>42.87971966029956</v>
@@ -1168,7 +1168,7 @@
         <v>85.76255952578593</v>
       </c>
       <c r="L19" s="3" t="n">
-        <v>12.73509104488699</v>
+        <v>12.73509104488697</v>
       </c>
     </row>
     <row r="20">
@@ -1179,7 +1179,7 @@
         <v>-1.674651672124849</v>
       </c>
       <c r="C20" s="4" t="n">
-        <v>-5.39021217599831</v>
+        <v>-5.390212175998366</v>
       </c>
       <c r="D20" s="3" t="n">
         <v>3.771752834564435</v>
@@ -1188,7 +1188,7 @@
         <v>-13.75492119088095</v>
       </c>
       <c r="F20" s="4" t="n">
-        <v>-2.875440220865022</v>
+        <v>-2.875440220865044</v>
       </c>
       <c r="G20" s="3" t="n">
         <v>14.95450251966797</v>
@@ -1206,7 +1206,7 @@
         <v>-20.85585577468776</v>
       </c>
       <c r="L20" s="3" t="n">
-        <v>6.734134962367344</v>
+        <v>6.734134962367366</v>
       </c>
     </row>
     <row r="21">
@@ -1217,16 +1217,16 @@
         <v>-2.646578241566</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>1.108887392314784</v>
+        <v>1.108887392314828</v>
       </c>
       <c r="D21" s="4" t="n">
-        <v>-4.895200911919295</v>
+        <v>-4.895200911919273</v>
       </c>
       <c r="E21" s="4" t="n">
         <v>-0.847577719809145</v>
       </c>
       <c r="F21" s="4" t="n">
-        <v>-5.780128842542132</v>
+        <v>-5.780128842542109</v>
       </c>
       <c r="G21" s="4" t="n">
         <v>-10.31792610423836</v>
@@ -1244,7 +1244,7 @@
         <v>11.14666190221476</v>
       </c>
       <c r="L21" s="3" t="n">
-        <v>31.81050180387586</v>
+        <v>31.81050180387583</v>
       </c>
     </row>
     <row r="22">
@@ -1255,7 +1255,7 @@
         <v>-12.14728928553194</v>
       </c>
       <c r="C22" s="4" t="n">
-        <v>-16.74641547526645</v>
+        <v>-16.74641547526646</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>-8.122351551388141</v>
@@ -1264,7 +1264,7 @@
         <v>-12.93908169410061</v>
       </c>
       <c r="F22" s="4" t="n">
-        <v>-7.750085510560368</v>
+        <v>-7.750085510560378</v>
       </c>
       <c r="G22" s="4" t="n">
         <v>-14.38408715184572</v>
@@ -1282,7 +1282,7 @@
         <v>16.28886938801739</v>
       </c>
       <c r="L22" s="4" t="n">
-        <v>-62.9317969194347</v>
+        <v>-62.93179691943471</v>
       </c>
     </row>
     <row r="23">
@@ -1293,10 +1293,10 @@
         <v>16.03197876724442</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>20.51555467930129</v>
+        <v>20.51555467930126</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>13.96457692039625</v>
+        <v>13.96457692039623</v>
       </c>
       <c r="E23" s="3" t="n">
         <v>17.42402728324728</v>
@@ -1320,7 +1320,7 @@
         <v>-11.79523767319499</v>
       </c>
       <c r="L23" s="3" t="n">
-        <v>178.0381740364427</v>
+        <v>178.0381740364428</v>
       </c>
     </row>
     <row r="24">
@@ -1331,16 +1331,16 @@
         <v>3.76130949788589</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>2.730884625337282</v>
+        <v>2.73088462533726</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>0.9742453010991969</v>
+        <v>0.9742453010992191</v>
       </c>
       <c r="E24" s="3" t="n">
         <v>3.650561964622123</v>
       </c>
       <c r="F24" s="3" t="n">
-        <v>1.413363838767445</v>
+        <v>1.41336383876749</v>
       </c>
       <c r="G24" s="3" t="n">
         <v>34.26126398389029</v>
@@ -1358,7 +1358,7 @@
         <v>-3.621551887348429</v>
       </c>
       <c r="L24" s="3" t="n">
-        <v>3.044683919981805</v>
+        <v>3.044683919981783</v>
       </c>
     </row>
     <row r="25">
@@ -1369,16 +1369,16 @@
         <v>3.296264931031434</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>3.656514737773642</v>
+        <v>3.656514737773664</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>6.278050011819958</v>
+        <v>6.278050011819936</v>
       </c>
       <c r="E25" s="3" t="n">
         <v>6.597270291793533</v>
       </c>
       <c r="F25" s="3" t="n">
-        <v>18.09674623392656</v>
+        <v>18.09674623392654</v>
       </c>
       <c r="G25" s="4" t="n">
         <v>-22.05103341645003</v>
@@ -1407,7 +1407,7 @@
         <v>-2.595264577216494</v>
       </c>
       <c r="C26" s="4" t="n">
-        <v>-9.715697500707632</v>
+        <v>-9.715697500707643</v>
       </c>
       <c r="D26" s="4" t="n">
         <v>-2.171057701400947</v>
@@ -1416,7 +1416,7 @@
         <v>-1.59096465246531</v>
       </c>
       <c r="F26" s="4" t="n">
-        <v>-4.050757078386336</v>
+        <v>-4.050757078386368</v>
       </c>
       <c r="G26" s="3" t="n">
         <v>32.97421593444749</v>
@@ -1451,7 +1451,7 @@
         <v>-13.62358072535415</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>-13.01187862241142</v>
+        <v>-13.01187862241141</v>
       </c>
       <c r="F27" s="4" t="n">
         <v>-8.624887261917092</v>
@@ -1460,7 +1460,7 @@
         <v>-15.86149704976668</v>
       </c>
       <c r="H27" s="4" t="n">
-        <v>-1.957687706281808</v>
+        <v>-1.95768770628183</v>
       </c>
       <c r="I27" s="4" t="n">
         <v>-2.496430970861818</v>
@@ -1472,7 +1472,7 @@
         <v>-16.24328182661559</v>
       </c>
       <c r="L27" s="4" t="n">
-        <v>-30.40860074405397</v>
+        <v>-30.40860074405398</v>
       </c>
     </row>
     <row r="28">
@@ -1489,7 +1489,7 @@
         <v>14.72245632581257</v>
       </c>
       <c r="E28" s="3" t="n">
-        <v>15.11669858557267</v>
+        <v>15.11669858557265</v>
       </c>
       <c r="F28" s="3" t="n">
         <v>8.589133936837779</v>
@@ -1498,7 +1498,7 @@
         <v>28.79283955556255</v>
       </c>
       <c r="H28" s="3" t="n">
-        <v>8.947282701256732</v>
+        <v>8.947282701256754</v>
       </c>
       <c r="I28" s="4" t="n">
         <v>-11.63614009456905</v>
@@ -1510,7 +1510,7 @@
         <v>9.776882890947292</v>
       </c>
       <c r="L28" s="4" t="n">
-        <v>-10.33020530391625</v>
+        <v>-10.33020530391626</v>
       </c>
     </row>
     <row r="29">
@@ -1521,19 +1521,19 @@
         <v>-10.88283377282654</v>
       </c>
       <c r="C29" s="4" t="n">
-        <v>-13.39455595888381</v>
+        <v>-13.39455595888378</v>
       </c>
       <c r="D29" s="4" t="n">
         <v>-11.953341064067</v>
       </c>
       <c r="E29" s="4" t="n">
-        <v>-11.80415875531241</v>
+        <v>-11.8041587553124</v>
       </c>
       <c r="F29" s="4" t="n">
         <v>-3.672058751544094</v>
       </c>
       <c r="G29" s="4" t="n">
-        <v>-10.12007243299434</v>
+        <v>-10.12007243299435</v>
       </c>
       <c r="H29" s="3" t="n">
         <v>4.927963176362171</v>
@@ -1548,7 +1548,7 @@
         <v>-11.34747712879</v>
       </c>
       <c r="L29" s="3" t="n">
-        <v>62.72685123712458</v>
+        <v>62.72685123712456</v>
       </c>
     </row>
     <row r="30">
@@ -1559,16 +1559,16 @@
         <v>11.75692904990082</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>17.45661410454429</v>
+        <v>17.45661410454424</v>
       </c>
       <c r="D30" s="3" t="n">
         <v>12.65897100068851</v>
       </c>
       <c r="E30" s="3" t="n">
-        <v>11.82689612185486</v>
+        <v>11.82689612185484</v>
       </c>
       <c r="F30" s="3" t="n">
-        <v>5.074956404806641</v>
+        <v>5.074956404806663</v>
       </c>
       <c r="G30" s="3" t="n">
         <v>2.215653429771414</v>
@@ -1586,7 +1586,7 @@
         <v>10.06047435737212</v>
       </c>
       <c r="L30" s="4" t="n">
-        <v>-35.14166706286964</v>
+        <v>-35.14166706286963</v>
       </c>
     </row>
     <row r="31">
@@ -1606,10 +1606,10 @@
         <v>7.935423064697011</v>
       </c>
       <c r="F31" s="4" t="n">
-        <v>-2.193988791973955</v>
+        <v>-2.193988791973978</v>
       </c>
       <c r="G31" s="3" t="n">
-        <v>4.01976728527691</v>
+        <v>4.019767285276932</v>
       </c>
       <c r="H31" s="3" t="n">
         <v>27.16967692680141</v>
@@ -1618,7 +1618,7 @@
         <v>29.03819078035193</v>
       </c>
       <c r="J31" s="3" t="n">
-        <v>148.0697910498403</v>
+        <v>148.0697910498402</v>
       </c>
       <c r="K31" s="3" t="n">
         <v>10.45110319647056</v>
@@ -1638,31 +1638,31 @@
         <v>0.6809881463572642</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>0.5531631639879464</v>
+        <v>0.5531631639879242</v>
       </c>
       <c r="E32" s="4" t="n">
-        <v>-2.687429033361122</v>
+        <v>-2.687429033361144</v>
       </c>
       <c r="F32" s="3" t="n">
         <v>5.597629530930726</v>
       </c>
       <c r="G32" s="4" t="n">
-        <v>-2.921727908612104</v>
+        <v>-2.921727908612115</v>
       </c>
       <c r="H32" s="3" t="n">
-        <v>13.19194719641468</v>
+        <v>13.19194719641466</v>
       </c>
       <c r="I32" s="4" t="n">
         <v>-0.295273481279279</v>
       </c>
       <c r="J32" s="3" t="n">
-        <v>38.88280657447554</v>
+        <v>38.88280657447556</v>
       </c>
       <c r="K32" s="4" t="n">
         <v>-14.06598622209451</v>
       </c>
       <c r="L32" s="4" t="n">
-        <v>-24.20164313455696</v>
+        <v>-24.20164313455695</v>
       </c>
     </row>
     <row r="33">
@@ -1670,22 +1670,22 @@
         <v>42978</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>5.75360322016274</v>
+        <v>5.753603220162762</v>
       </c>
       <c r="C33" s="3" t="n">
         <v>10.79630527606117</v>
       </c>
       <c r="D33" s="3" t="n">
-        <v>7.067605812297129</v>
+        <v>7.067605812297151</v>
       </c>
       <c r="E33" s="3" t="n">
-        <v>7.048727084819917</v>
+        <v>7.048727084819939</v>
       </c>
       <c r="F33" s="3" t="n">
         <v>4.336514363419042</v>
       </c>
       <c r="G33" s="3" t="n">
-        <v>3.94223263989768</v>
+        <v>3.942232639897703</v>
       </c>
       <c r="H33" s="4" t="n">
         <v>-37.22446123839433</v>
@@ -1700,7 +1700,7 @@
         <v>1.433510322470677</v>
       </c>
       <c r="L33" s="4" t="n">
-        <v>-29.60494396680556</v>
+        <v>-29.60494396680557</v>
       </c>
     </row>
     <row r="34">
@@ -1708,7 +1708,7 @@
         <v>43008</v>
       </c>
       <c r="B34" s="4" t="n">
-        <v>-6.585842791036834</v>
+        <v>-6.585842791036855</v>
       </c>
       <c r="C34" s="4" t="n">
         <v>-7.356030032138983</v>
@@ -1717,13 +1717,13 @@
         <v>-5.025881572682067</v>
       </c>
       <c r="E34" s="4" t="n">
-        <v>-11.42550629230501</v>
+        <v>-11.42550629230502</v>
       </c>
       <c r="F34" s="4" t="n">
         <v>-12.17593235101048</v>
       </c>
       <c r="G34" s="3" t="n">
-        <v>6.927495517965987</v>
+        <v>6.927495517965965</v>
       </c>
       <c r="H34" s="4" t="n">
         <v>-20.67311421083188</v>
@@ -1732,7 +1732,7 @@
         <v>16.74571321614777</v>
       </c>
       <c r="J34" s="4" t="n">
-        <v>-33.84816694557782</v>
+        <v>-33.84816694557783</v>
       </c>
       <c r="K34" s="4" t="n">
         <v>-12.10658715912525</v>
@@ -1746,10 +1746,10 @@
         <v>43039</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>7.750903538015042</v>
+        <v>7.750903538015086</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>6.608324590942605</v>
+        <v>6.608324590942583</v>
       </c>
       <c r="D35" s="3" t="n">
         <v>4.113931348764788</v>
@@ -1758,13 +1758,13 @@
         <v>17.1516322171569</v>
       </c>
       <c r="F35" s="3" t="n">
-        <v>11.42432186513913</v>
+        <v>11.42432186513911</v>
       </c>
       <c r="G35" s="3" t="n">
-        <v>1.536975017006426</v>
+        <v>1.536975017006448</v>
       </c>
       <c r="H35" s="3" t="n">
-        <v>43.8359004268166</v>
+        <v>43.83590042681662</v>
       </c>
       <c r="I35" s="4" t="n">
         <v>-8.595402522153284</v>
@@ -1776,7 +1776,7 @@
         <v>29.31861674148513</v>
       </c>
       <c r="L35" s="4" t="n">
-        <v>-17.2135720096602</v>
+        <v>-17.21357200966019</v>
       </c>
     </row>
     <row r="36">
@@ -1784,25 +1784,25 @@
         <v>43069</v>
       </c>
       <c r="B36" s="4" t="n">
-        <v>-5.794323017542369</v>
+        <v>-5.794323017542402</v>
       </c>
       <c r="C36" s="4" t="n">
-        <v>-7.797005132895518</v>
+        <v>-7.79700513289553</v>
       </c>
       <c r="D36" s="4" t="n">
-        <v>-5.103094828631294</v>
+        <v>-5.103094828631304</v>
       </c>
       <c r="E36" s="4" t="n">
-        <v>-6.52008909362165</v>
+        <v>-6.520089093621662</v>
       </c>
       <c r="F36" s="4" t="n">
-        <v>-6.723990062855655</v>
+        <v>-6.723990062855634</v>
       </c>
       <c r="G36" s="4" t="n">
-        <v>-4.243524206394744</v>
+        <v>-4.243524206394755</v>
       </c>
       <c r="H36" s="3" t="n">
-        <v>13.67892914765083</v>
+        <v>13.67892914765081</v>
       </c>
       <c r="I36" s="3" t="n">
         <v>31.45741150698116</v>
@@ -1814,7 +1814,7 @@
         <v>-16.60974794982269</v>
       </c>
       <c r="L36" s="3" t="n">
-        <v>24.03485723703476</v>
+        <v>24.03485723703474</v>
       </c>
     </row>
     <row r="37">
@@ -1828,10 +1828,10 @@
         <v>-8.396732715921662</v>
       </c>
       <c r="D37" s="4" t="n">
-        <v>-13.67978125084299</v>
+        <v>-13.67978125084301</v>
       </c>
       <c r="E37" s="4" t="n">
-        <v>-14.51792197118571</v>
+        <v>-14.51792197118569</v>
       </c>
       <c r="F37" s="4" t="n">
         <v>-15.28026548161316</v>
@@ -1840,7 +1840,7 @@
         <v>-0.9977216278956424</v>
       </c>
       <c r="H37" s="3" t="n">
-        <v>43.27781228350249</v>
+        <v>43.27781228350251</v>
       </c>
       <c r="I37" s="4" t="n">
         <v>-39.82397236642875</v>
@@ -1852,7 +1852,7 @@
         <v>-25.65991728271433</v>
       </c>
       <c r="L37" s="3" t="n">
-        <v>97.05211871494097</v>
+        <v>97.05211871494106</v>
       </c>
     </row>
     <row r="38">
@@ -1860,25 +1860,25 @@
         <v>43131</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>11.79404837792431</v>
+        <v>11.79404837792435</v>
       </c>
       <c r="C38" s="3" t="n">
-        <v>6.673770011998492</v>
+        <v>6.673770011998537</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>12.86924835276555</v>
+        <v>12.8692483527656</v>
       </c>
       <c r="E38" s="3" t="n">
-        <v>25.5682334434908</v>
+        <v>25.56823344349077</v>
       </c>
       <c r="F38" s="3" t="n">
         <v>38.02182146760757</v>
       </c>
       <c r="G38" s="3" t="n">
-        <v>8.640835800063652</v>
+        <v>8.640835800063673</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>-13.4522687158415</v>
+        <v>-13.45226871584149</v>
       </c>
       <c r="I38" s="3" t="n">
         <v>31.06500495669085</v>
@@ -1898,22 +1898,22 @@
         <v>43159</v>
       </c>
       <c r="B39" s="4" t="n">
-        <v>-6.249570919083657</v>
+        <v>-6.249570919083669</v>
       </c>
       <c r="C39" s="4" t="n">
-        <v>-2.379085615246024</v>
+        <v>-2.379085615246068</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>-8.771712862432878</v>
+        <v>-8.771712862432901</v>
       </c>
       <c r="E39" s="4" t="n">
         <v>-3.963948497748115</v>
       </c>
       <c r="F39" s="4" t="n">
-        <v>-10.30373220923914</v>
+        <v>-10.30373220923917</v>
       </c>
       <c r="G39" s="4" t="n">
-        <v>-6.064526004262283</v>
+        <v>-6.064526004262294</v>
       </c>
       <c r="H39" s="4" t="n">
         <v>-31.52040726390479</v>
@@ -1922,7 +1922,7 @@
         <v>47.46059436830343</v>
       </c>
       <c r="J39" s="4" t="n">
-        <v>-35.75973332346766</v>
+        <v>-35.75973332346767</v>
       </c>
       <c r="K39" s="4" t="n">
         <v>-25.66169796856587</v>
@@ -1945,16 +1945,16 @@
         <v>10.32239722548356</v>
       </c>
       <c r="E40" s="3" t="n">
-        <v>1.610753768054263</v>
+        <v>1.610753768054285</v>
       </c>
       <c r="F40" s="3" t="n">
         <v>4.947404047429926</v>
       </c>
       <c r="G40" s="4" t="n">
-        <v>-0.07845596714178837</v>
+        <v>-0.07845596714181058</v>
       </c>
       <c r="H40" s="4" t="n">
-        <v>-11.67543353937702</v>
+        <v>-11.675433539377</v>
       </c>
       <c r="I40" s="4" t="n">
         <v>-23.73648879767628</v>
@@ -1966,7 +1966,7 @@
         <v>48.19674482050371</v>
       </c>
       <c r="L40" s="3" t="n">
-        <v>8.013432677932641</v>
+        <v>8.013432677932597</v>
       </c>
     </row>
     <row r="41">
@@ -1974,37 +1974,37 @@
         <v>43220</v>
       </c>
       <c r="B41" s="4" t="n">
-        <v>-4.781106534213919</v>
+        <v>-4.78110653421393</v>
       </c>
       <c r="C41" s="4" t="n">
-        <v>-5.727161958493554</v>
+        <v>-5.727161958493532</v>
       </c>
       <c r="D41" s="3" t="n">
         <v>1.929796314235332</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>-10.87471627449444</v>
+        <v>-10.87471627449443</v>
       </c>
       <c r="F41" s="4" t="n">
-        <v>-10.42143013743076</v>
+        <v>-10.42143013743073</v>
       </c>
       <c r="G41" s="4" t="n">
-        <v>-6.907402431076404</v>
+        <v>-6.907402431076393</v>
       </c>
       <c r="H41" s="3" t="n">
-        <v>11.80206821454206</v>
+        <v>11.80206821454204</v>
       </c>
       <c r="I41" s="3" t="n">
         <v>28.51220798592029</v>
       </c>
       <c r="J41" s="3" t="n">
-        <v>24.03757164880112</v>
+        <v>24.03757164880114</v>
       </c>
       <c r="K41" s="4" t="n">
         <v>-31.11317829710341</v>
       </c>
       <c r="L41" s="3" t="n">
-        <v>42.37861388759428</v>
+        <v>42.3786138875943</v>
       </c>
     </row>
     <row r="42">
@@ -2012,16 +2012,16 @@
         <v>43251</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>3.979163555594356</v>
+        <v>3.9791635555944</v>
       </c>
       <c r="C42" s="3" t="n">
-        <v>8.792287263021748</v>
+        <v>8.792287263021702</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>-1.049328209039802</v>
+        <v>-1.049328209039813</v>
       </c>
       <c r="E42" s="3" t="n">
-        <v>5.564581559299886</v>
+        <v>5.564581559299842</v>
       </c>
       <c r="F42" s="3" t="n">
         <v>4.254706436393385</v>
@@ -2030,7 +2030,7 @@
         <v>-0.7539469641285379</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>-15.58408202834576</v>
+        <v>-15.58408202834577</v>
       </c>
       <c r="I42" s="3" t="n">
         <v>2.712320706035931</v>
@@ -2042,7 +2042,7 @@
         <v>26.52405003981551</v>
       </c>
       <c r="L42" s="3" t="n">
-        <v>41.97954710933733</v>
+        <v>41.97954710933735</v>
       </c>
     </row>
     <row r="43">
@@ -2053,22 +2053,22 @@
         <v>-7.393330032039314</v>
       </c>
       <c r="C43" s="4" t="n">
-        <v>-10.81407156669439</v>
+        <v>-10.81407156669438</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>-7.978358428525123</v>
+        <v>-7.978358428525134</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>-2.432794670523475</v>
+        <v>-2.432794670523453</v>
       </c>
       <c r="F43" s="4" t="n">
-        <v>-5.13143666818957</v>
+        <v>-5.131436668189582</v>
       </c>
       <c r="G43" s="3" t="n">
-        <v>2.235517845041102</v>
+        <v>2.23551784504108</v>
       </c>
       <c r="H43" s="3" t="n">
-        <v>5.362657031066465</v>
+        <v>5.362657031066487</v>
       </c>
       <c r="I43" s="4" t="n">
         <v>-50.84953570919636</v>
@@ -2080,7 +2080,7 @@
         <v>-23.81515938284006</v>
       </c>
       <c r="L43" s="4" t="n">
-        <v>-9.954089200795336</v>
+        <v>-9.954089200795346</v>
       </c>
     </row>
     <row r="44">
@@ -2094,7 +2094,7 @@
         <v>5.427217011828489</v>
       </c>
       <c r="D44" s="3" t="n">
-        <v>4.522717144720589</v>
+        <v>4.522717144720634</v>
       </c>
       <c r="E44" s="4" t="n">
         <v>-2.014216705287419</v>
@@ -2106,7 +2106,7 @@
         <v>-0.7396220580289325</v>
       </c>
       <c r="H44" s="3" t="n">
-        <v>9.337820276154929</v>
+        <v>9.337820276154973</v>
       </c>
       <c r="I44" s="3" t="n">
         <v>34.94372234257739</v>
@@ -2118,7 +2118,7 @@
         <v>5.979220468975877</v>
       </c>
       <c r="L44" s="4" t="n">
-        <v>-20.61893879531537</v>
+        <v>-20.61893879531535</v>
       </c>
     </row>
     <row r="45">
@@ -2126,31 +2126,31 @@
         <v>43343</v>
       </c>
       <c r="B45" s="4" t="n">
-        <v>-4.426402752302638</v>
+        <v>-4.42640275230265</v>
       </c>
       <c r="C45" s="4" t="n">
-        <v>-5.488161770734523</v>
+        <v>-5.488161770734513</v>
       </c>
       <c r="D45" s="3" t="n">
         <v>0.03818059744000735</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>-8.462343298794329</v>
+        <v>-8.462343298794339</v>
       </c>
       <c r="F45" s="4" t="n">
-        <v>-7.012896390307056</v>
+        <v>-7.012896390307032</v>
       </c>
       <c r="G45" s="4" t="n">
-        <v>-12.4922795979885</v>
+        <v>-12.49227959798849</v>
       </c>
       <c r="H45" s="3" t="n">
-        <v>26.65554064816284</v>
+        <v>26.65554064816282</v>
       </c>
       <c r="I45" s="3" t="n">
         <v>6.248961628353644</v>
       </c>
       <c r="J45" s="3" t="n">
-        <v>27.55143210175022</v>
+        <v>27.55143210175017</v>
       </c>
       <c r="K45" s="3" t="n">
         <v>13.06936683833859</v>
@@ -2164,10 +2164,10 @@
         <v>43373</v>
       </c>
       <c r="B46" s="4" t="n">
-        <v>-6.70944080117798</v>
+        <v>-6.709440801177968</v>
       </c>
       <c r="C46" s="4" t="n">
-        <v>-4.439416836849985</v>
+        <v>-4.439416836849963</v>
       </c>
       <c r="D46" s="4" t="n">
         <v>-14.08239145762446</v>
@@ -2176,13 +2176,13 @@
         <v>-10.37386245134824</v>
       </c>
       <c r="F46" s="4" t="n">
-        <v>-4.647983183210491</v>
+        <v>-4.64798318321048</v>
       </c>
       <c r="G46" s="4" t="n">
-        <v>-4.500496802360909</v>
+        <v>-4.500496802360887</v>
       </c>
       <c r="H46" s="3" t="n">
-        <v>19.18596890484576</v>
+        <v>19.18596890484581</v>
       </c>
       <c r="I46" s="4" t="n">
         <v>-26.71069651995363</v>
@@ -2194,7 +2194,7 @@
         <v>11.57991162526366</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>-30.29345502103302</v>
+        <v>-30.29345502103303</v>
       </c>
     </row>
     <row r="47">
@@ -2211,7 +2211,7 @@
         <v>16.34267541342616</v>
       </c>
       <c r="E47" s="3" t="n">
-        <v>19.73716342176777</v>
+        <v>19.73716342176779</v>
       </c>
       <c r="F47" s="3" t="n">
         <v>11.95023732555718</v>
@@ -2220,19 +2220,19 @@
         <v>15.81801106395702</v>
       </c>
       <c r="H47" s="4" t="n">
-        <v>-24.1149618910934</v>
+        <v>-24.11496189109342</v>
       </c>
       <c r="I47" s="4" t="n">
         <v>-14.10459058437205</v>
       </c>
       <c r="J47" s="4" t="n">
-        <v>-14.32056860965602</v>
+        <v>-14.320568609656</v>
       </c>
       <c r="K47" s="4" t="n">
         <v>-23.45328127833976</v>
       </c>
       <c r="L47" s="3" t="n">
-        <v>119.8006821873926</v>
+        <v>119.8006821873927</v>
       </c>
     </row>
     <row r="48">
@@ -2249,7 +2249,7 @@
         <v>-6.058149576185745</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>-6.771471301229082</v>
+        <v>-6.771471301229093</v>
       </c>
       <c r="F48" s="4" t="n">
         <v>-1.662133660075571</v>
@@ -2278,7 +2278,7 @@
         <v>43465</v>
       </c>
       <c r="B49" s="4" t="n">
-        <v>-5.088894420766299</v>
+        <v>-5.088894420766332</v>
       </c>
       <c r="C49" s="4" t="n">
         <v>-2.619785528464902</v>
@@ -2287,7 +2287,7 @@
         <v>-10.18674636872003</v>
       </c>
       <c r="E49" s="3" t="n">
-        <v>1.484572370009363</v>
+        <v>1.484572370009385</v>
       </c>
       <c r="F49" s="4" t="n">
         <v>-7.947467253492768</v>
@@ -2296,7 +2296,7 @@
         <v>-3.898535118558966</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>-22.79854170061296</v>
+        <v>-22.79854170061295</v>
       </c>
       <c r="I49" s="4" t="n">
         <v>-22.41276498890857</v>
@@ -2316,7 +2316,7 @@
         <v>43496</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>26.42450311244411</v>
+        <v>26.42450311244415</v>
       </c>
       <c r="C50" s="3" t="n">
         <v>28.37673488240742</v>
@@ -2325,7 +2325,7 @@
         <v>24.86460071232697</v>
       </c>
       <c r="E50" s="3" t="n">
-        <v>24.21864218451375</v>
+        <v>24.21864218451373</v>
       </c>
       <c r="F50" s="3" t="n">
         <v>33.37095914678323</v>
@@ -2334,7 +2334,7 @@
         <v>19.38117237129669</v>
       </c>
       <c r="H50" s="3" t="n">
-        <v>31.73250667304044</v>
+        <v>31.73250667304042</v>
       </c>
       <c r="I50" s="3" t="n">
         <v>63.8877941519481</v>
@@ -2369,10 +2369,10 @@
         <v>-7.763844359305716</v>
       </c>
       <c r="G51" s="4" t="n">
-        <v>-17.46455588095007</v>
+        <v>-17.46455588095008</v>
       </c>
       <c r="H51" s="4" t="n">
-        <v>-17.38604330302881</v>
+        <v>-17.3860433030288</v>
       </c>
       <c r="I51" s="3" t="n">
         <v>36.66010543806875</v>
@@ -2395,19 +2395,19 @@
         <v>-0.1490282739297855</v>
       </c>
       <c r="C52" s="4" t="n">
-        <v>-1.965789304747423</v>
+        <v>-1.965789304747456</v>
       </c>
       <c r="D52" s="3" t="n">
         <v>4.102664447243365</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>-7.998427163122035</v>
+        <v>-7.998427163122002</v>
       </c>
       <c r="F52" s="3" t="n">
         <v>6.219659834665014</v>
       </c>
       <c r="G52" s="4" t="n">
-        <v>-3.14394609148253</v>
+        <v>-3.143946091482508</v>
       </c>
       <c r="H52" s="3" t="n">
         <v>13.43013938066133</v>
@@ -2433,13 +2433,13 @@
         <v>-0.4678440768809966</v>
       </c>
       <c r="C53" s="3" t="n">
-        <v>1.565321254660756</v>
+        <v>1.565321254660779</v>
       </c>
       <c r="D53" s="4" t="n">
         <v>-4.771268479740664</v>
       </c>
       <c r="E53" s="3" t="n">
-        <v>6.246187271500392</v>
+        <v>6.246187271500347</v>
       </c>
       <c r="F53" s="4" t="n">
         <v>-3.576892502963591</v>
@@ -2460,7 +2460,7 @@
         <v>-21.43111412397021</v>
       </c>
       <c r="L53" s="3" t="n">
-        <v>27.47139399271701</v>
+        <v>27.47139399271699</v>
       </c>
     </row>
     <row r="54">
@@ -2486,7 +2486,7 @@
         <v>4.038573567286785</v>
       </c>
       <c r="H54" s="4" t="n">
-        <v>-6.532813829695138</v>
+        <v>-6.532813829695128</v>
       </c>
       <c r="I54" s="3" t="n">
         <v>1.431148565421436</v>
@@ -2498,7 +2498,7 @@
         <v>-14.41487668885376</v>
       </c>
       <c r="L54" s="4" t="n">
-        <v>-16.29445677466514</v>
+        <v>-16.29445677466512</v>
       </c>
     </row>
     <row r="55">
@@ -2524,7 +2524,7 @@
         <v>13.20048978430288</v>
       </c>
       <c r="H55" s="3" t="n">
-        <v>0.6339406263587311</v>
+        <v>0.6339406263587088</v>
       </c>
       <c r="I55" s="4" t="n">
         <v>-26.39301104069354</v>
@@ -2600,7 +2600,7 @@
         <v>-3.751033622226974</v>
       </c>
       <c r="H57" s="3" t="n">
-        <v>0.6513514648805563</v>
+        <v>0.6513514648805341</v>
       </c>
       <c r="I57" s="3" t="n">
         <v>1.945356367182893</v>
@@ -2638,13 +2638,13 @@
         <v>-11.05829755355244</v>
       </c>
       <c r="H58" s="3" t="n">
-        <v>5.046534436994676</v>
+        <v>5.046534436994699</v>
       </c>
       <c r="I58" s="4" t="n">
         <v>-4.460093689163513</v>
       </c>
       <c r="J58" s="3" t="n">
-        <v>4.755133011953516</v>
+        <v>4.755133011953494</v>
       </c>
       <c r="K58" s="4" t="n">
         <v>-3.327290061728028</v>
@@ -2676,13 +2676,13 @@
         <v>12.36758249783867</v>
       </c>
       <c r="H59" s="3" t="n">
-        <v>6.478576787355417</v>
+        <v>6.478576787355395</v>
       </c>
       <c r="I59" s="3" t="n">
         <v>15.30327870489374</v>
       </c>
       <c r="J59" s="4" t="n">
-        <v>-16.44818746001796</v>
+        <v>-16.44818746001795</v>
       </c>
       <c r="K59" s="3" t="n">
         <v>37.68181032541198</v>
@@ -2708,7 +2708,7 @@
         <v>-11.1250150996944</v>
       </c>
       <c r="F60" s="4" t="n">
-        <v>-12.09754695526223</v>
+        <v>-12.09754695526221</v>
       </c>
       <c r="G60" s="4" t="n">
         <v>-22.31999794699361</v>
@@ -2878,7 +2878,7 @@
         <v>48.65427803295541</v>
       </c>
       <c r="L64" s="3" t="n">
-        <v>60.55843785120474</v>
+        <v>60.55843785120472</v>
       </c>
     </row>
     <row r="65">
@@ -2904,7 +2904,7 @@
         <v>-14.71647271281282</v>
       </c>
       <c r="H65" s="4" t="n">
-        <v>-1.734408020869593</v>
+        <v>-1.734408020869582</v>
       </c>
       <c r="I65" s="4" t="n">
         <v>-41.78104463781296</v>
@@ -2942,7 +2942,7 @@
         <v>30.06298178916935</v>
       </c>
       <c r="H66" s="4" t="n">
-        <v>-13.11709530472076</v>
+        <v>-13.11709530472077</v>
       </c>
       <c r="I66" s="3" t="n">
         <v>10.4928210583072</v>
@@ -2954,7 +2954,7 @@
         <v>14.64730036484709</v>
       </c>
       <c r="L66" s="4" t="n">
-        <v>-31.98138186408496</v>
+        <v>-31.98138186408497</v>
       </c>
     </row>
     <row r="67">
@@ -2992,7 +2992,7 @@
         <v>4.754083089970962</v>
       </c>
       <c r="L67" s="3" t="n">
-        <v>68.58996643561774</v>
+        <v>68.58996643561778</v>
       </c>
     </row>
     <row r="68">
@@ -3024,13 +3024,13 @@
         <v>-42.64076371396551</v>
       </c>
       <c r="J68" s="3" t="n">
-        <v>65.38286030221543</v>
+        <v>65.38286030221536</v>
       </c>
       <c r="K68" s="3" t="n">
         <v>2.358599144620777</v>
       </c>
       <c r="L68" s="4" t="n">
-        <v>-27.84879600648155</v>
+        <v>-27.84879600648156</v>
       </c>
     </row>
     <row r="69">
@@ -3062,7 +3062,7 @@
         <v>-6.180875539263109</v>
       </c>
       <c r="J69" s="4" t="n">
-        <v>-44.430692594847</v>
+        <v>-44.43069259484699</v>
       </c>
       <c r="K69" s="4" t="n">
         <v>-23.53354514950296</v>
@@ -3076,7 +3076,7 @@
         <v>44104</v>
       </c>
       <c r="B70" s="4" t="n">
-        <v>-7.273587084527988</v>
+        <v>-7.27358708452801</v>
       </c>
       <c r="C70" s="4" t="n">
         <v>-9.614345690586424</v>
@@ -3088,7 +3088,7 @@
         <v>-6.495298536065198</v>
       </c>
       <c r="F70" s="4" t="n">
-        <v>-6.684446661963738</v>
+        <v>-6.684446661963772</v>
       </c>
       <c r="G70" s="4" t="n">
         <v>-4.041758678281948</v>
@@ -3106,7 +3106,7 @@
         <v>15.67541060715847</v>
       </c>
       <c r="L70" s="3" t="n">
-        <v>59.84644979645724</v>
+        <v>59.84644979645726</v>
       </c>
     </row>
     <row r="71">
@@ -3114,7 +3114,7 @@
         <v>44135</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>11.56044400770888</v>
+        <v>11.5604440077089</v>
       </c>
       <c r="C71" s="3" t="n">
         <v>11.0262658199735</v>
@@ -3126,7 +3126,7 @@
         <v>13.25050965007948</v>
       </c>
       <c r="F71" s="3" t="n">
-        <v>10.54364198211937</v>
+        <v>10.54364198211939</v>
       </c>
       <c r="G71" s="3" t="n">
         <v>16.54266422695847</v>
@@ -3138,7 +3138,7 @@
         <v>3.254136356457327</v>
       </c>
       <c r="J71" s="3" t="n">
-        <v>78.61902405013782</v>
+        <v>78.6190240501379</v>
       </c>
       <c r="K71" s="3" t="n">
         <v>24.59700975890917</v>
@@ -3152,7 +3152,7 @@
         <v>44165</v>
       </c>
       <c r="B72" s="4" t="n">
-        <v>-15.81756760988926</v>
+        <v>-15.81756760988929</v>
       </c>
       <c r="C72" s="4" t="n">
         <v>-15.35275270373739</v>
@@ -3164,7 +3164,7 @@
         <v>-19.18527774088501</v>
       </c>
       <c r="F72" s="4" t="n">
-        <v>-14.5933759642557</v>
+        <v>-14.59337596425568</v>
       </c>
       <c r="G72" s="4" t="n">
         <v>-19.07876371071826</v>
@@ -3176,7 +3176,7 @@
         <v>-38.44392523164173</v>
       </c>
       <c r="J72" s="4" t="n">
-        <v>-37.50397536899803</v>
+        <v>-37.50397536899804</v>
       </c>
       <c r="K72" s="4" t="n">
         <v>-41.08014670819696</v>
@@ -3190,13 +3190,13 @@
         <v>44196</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>8.034078229273668</v>
+        <v>8.020449608328907</v>
       </c>
       <c r="C73" s="3" t="n">
         <v>5.984298846417913</v>
       </c>
       <c r="D73" s="3" t="n">
-        <v>6.824564753434559</v>
+        <v>6.76768266357648</v>
       </c>
       <c r="E73" s="3" t="n">
         <v>8.362208541779959</v>
@@ -3214,7 +3214,7 @@
         <v>-10.97399608124908</v>
       </c>
       <c r="J73" s="3" t="n">
-        <v>22.58411997986629</v>
+        <v>22.58411997986627</v>
       </c>
       <c r="K73" s="3" t="n">
         <v>31.89342070401015</v>
@@ -3228,13 +3228,13 @@
         <v>44227</v>
       </c>
       <c r="B74" s="4" t="n">
-        <v>-7.386390599589343</v>
+        <v>-7.374705814148941</v>
       </c>
       <c r="C74" s="4" t="n">
         <v>-8.225905360525598</v>
       </c>
       <c r="D74" s="4" t="n">
-        <v>-10.32515166106084</v>
+        <v>-10.27737603594685</v>
       </c>
       <c r="E74" s="4" t="n">
         <v>-9.989199596372922</v>
@@ -3252,13 +3252,13 @@
         <v>-6.230254786882083</v>
       </c>
       <c r="J74" s="4" t="n">
-        <v>-10.21523006337418</v>
+        <v>-10.21523006337415</v>
       </c>
       <c r="K74" s="4" t="n">
         <v>-16.30925354003761</v>
       </c>
       <c r="L74" s="4" t="n">
-        <v>-37.02014647782207</v>
+        <v>-37.02014647782206</v>
       </c>
     </row>
     <row r="75">
@@ -3278,7 +3278,7 @@
         <v>4.988318758972943</v>
       </c>
       <c r="F75" s="4" t="n">
-        <v>-14.17463685567798</v>
+        <v>-14.17463685567799</v>
       </c>
       <c r="G75" s="4" t="n">
         <v>-0.7482498630932422</v>
@@ -3334,7 +3334,7 @@
         <v>21.43172422115918</v>
       </c>
       <c r="L76" s="3" t="n">
-        <v>9.888064437580057</v>
+        <v>9.888064437580013</v>
       </c>
     </row>
     <row r="77">
@@ -3342,7 +3342,7 @@
         <v>44316</v>
       </c>
       <c r="B77" s="4" t="n">
-        <v>-6.867702290068722</v>
+        <v>-6.867702290068756</v>
       </c>
       <c r="C77" s="4" t="n">
         <v>-7.690180745350084</v>
@@ -3354,7 +3354,7 @@
         <v>-12.68171083024434</v>
       </c>
       <c r="F77" s="4" t="n">
-        <v>-0.9666314816414556</v>
+        <v>-0.9666314816414778</v>
       </c>
       <c r="G77" s="4" t="n">
         <v>-2.183965636619045</v>
@@ -3366,13 +3366,13 @@
         <v>-29.28581714685652</v>
       </c>
       <c r="J77" s="4" t="n">
-        <v>-44.52929856593547</v>
+        <v>-44.52929856593548</v>
       </c>
       <c r="K77" s="4" t="n">
         <v>-57.42422701732253</v>
       </c>
       <c r="L77" s="3" t="n">
-        <v>21.09224762310036</v>
+        <v>21.09224762310042</v>
       </c>
     </row>
     <row r="78">
@@ -3380,7 +3380,7 @@
         <v>44347</v>
       </c>
       <c r="B78" s="4" t="n">
-        <v>-1.821498938862309</v>
+        <v>-1.821498938862287</v>
       </c>
       <c r="C78" s="3" t="n">
         <v>0.2486049272837132</v>
@@ -3392,7 +3392,7 @@
         <v>11.49711622730218</v>
       </c>
       <c r="F78" s="4" t="n">
-        <v>-11.34513153298875</v>
+        <v>-11.34513153298873</v>
       </c>
       <c r="G78" s="4" t="n">
         <v>-9.684815406383407</v>
@@ -3404,7 +3404,7 @@
         <v>5.700736346805457</v>
       </c>
       <c r="J78" s="4" t="n">
-        <v>-0.7600067235658536</v>
+        <v>-0.7600067235658314</v>
       </c>
       <c r="K78" s="3" t="n">
         <v>70.90778021436279</v>
@@ -3418,7 +3418,7 @@
         <v>44377</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>3.601577955559487</v>
+        <v>3.60157795555951</v>
       </c>
       <c r="C79" s="3" t="n">
         <v>6.004891954328873</v>
@@ -3430,7 +3430,7 @@
         <v>-1.736544156493602</v>
       </c>
       <c r="F79" s="3" t="n">
-        <v>5.486127517873784</v>
+        <v>5.48612751787374</v>
       </c>
       <c r="G79" s="3" t="n">
         <v>2.908719105233004</v>
@@ -3442,7 +3442,7 @@
         <v>-2.937022608154949</v>
       </c>
       <c r="J79" s="4" t="n">
-        <v>-0.7345048332190407</v>
+        <v>-0.7345048332190851</v>
       </c>
       <c r="K79" s="4" t="n">
         <v>-3.270360644203796</v>
@@ -3456,7 +3456,7 @@
         <v>44408</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>0.9207273175614539</v>
+        <v>0.9207273175614317</v>
       </c>
       <c r="C80" s="3" t="n">
         <v>1.083478524437043</v>
@@ -3468,7 +3468,7 @@
         <v>1.950872779333745</v>
       </c>
       <c r="F80" s="3" t="n">
-        <v>0.9018000901152456</v>
+        <v>0.9018000901152678</v>
       </c>
       <c r="G80" s="3" t="n">
         <v>2.020354192328</v>
@@ -3480,13 +3480,13 @@
         <v>45.4709663513903</v>
       </c>
       <c r="J80" s="3" t="n">
-        <v>4.465509182463978</v>
+        <v>4.465509182464</v>
       </c>
       <c r="K80" s="3" t="n">
         <v>21.66357518380833</v>
       </c>
       <c r="L80" s="3" t="n">
-        <v>67.82616209170878</v>
+        <v>67.82616209170875</v>
       </c>
     </row>
     <row r="81">
@@ -3518,7 +3518,7 @@
         <v>17.45330399478349</v>
       </c>
       <c r="J81" s="3" t="n">
-        <v>53.82726731723413</v>
+        <v>53.8272673172342</v>
       </c>
       <c r="K81" s="4" t="n">
         <v>-13.06461389423514</v>
@@ -3556,13 +3556,13 @@
         <v>-48.41455887565434</v>
       </c>
       <c r="J82" s="4" t="n">
-        <v>-23.1467044666417</v>
+        <v>-23.14670446664171</v>
       </c>
       <c r="K82" s="4" t="n">
         <v>-21.88310198237528</v>
       </c>
       <c r="L82" s="4" t="n">
-        <v>-26.54482888430626</v>
+        <v>-26.54482888430624</v>
       </c>
     </row>
     <row r="83">
@@ -3570,7 +3570,7 @@
         <v>44500</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>1.074809915302732</v>
+        <v>1.074809915302755</v>
       </c>
       <c r="C83" s="3" t="n">
         <v>0.3519089024269118</v>
@@ -3632,7 +3632,7 @@
         <v>16.48828857844602</v>
       </c>
       <c r="J84" s="3" t="n">
-        <v>22.90711958517127</v>
+        <v>22.90711958517129</v>
       </c>
       <c r="K84" s="3" t="n">
         <v>49.47803454489477</v>
@@ -3670,7 +3670,7 @@
         <v>21.23941779435521</v>
       </c>
       <c r="J85" s="4" t="n">
-        <v>-12.20356926978816</v>
+        <v>-12.20356926978817</v>
       </c>
       <c r="K85" s="4" t="n">
         <v>-18.51101656001505</v>
@@ -3708,7 +3708,7 @@
         <v>-19.73127149240691</v>
       </c>
       <c r="J86" s="4" t="n">
-        <v>-0.7506187285912791</v>
+        <v>-0.750618728591268</v>
       </c>
       <c r="K86" s="3" t="n">
         <v>2.921154088957678</v>
@@ -3810,7 +3810,7 @@
         <v>-3.688245377646859</v>
       </c>
       <c r="F89" s="4" t="n">
-        <v>-6.874488445065873</v>
+        <v>-6.874488445065852</v>
       </c>
       <c r="G89" s="3" t="n">
         <v>3.84320626694501</v>
@@ -3828,7 +3828,7 @@
         <v>-0.8984009680123695</v>
       </c>
       <c r="L89" s="3" t="n">
-        <v>33.19495910950847</v>
+        <v>33.1949591095085</v>
       </c>
     </row>
     <row r="90">
@@ -3848,7 +3848,7 @@
         <v>8.482957294377226</v>
       </c>
       <c r="F90" s="4" t="n">
-        <v>-0.05832748323414405</v>
+        <v>-0.05832748323415515</v>
       </c>
       <c r="G90" s="3" t="n">
         <v>5.819943381396486</v>
@@ -3860,13 +3860,13 @@
         <v>-9.506361517620988</v>
       </c>
       <c r="J90" s="3" t="n">
-        <v>7.885129967439908</v>
+        <v>7.88512996743993</v>
       </c>
       <c r="K90" s="3" t="n">
         <v>32.88335510629155</v>
       </c>
       <c r="L90" s="4" t="n">
-        <v>-12.59419438729474</v>
+        <v>-12.59419438729477</v>
       </c>
     </row>
     <row r="91">
@@ -3874,7 +3874,7 @@
         <v>44742</v>
       </c>
       <c r="B91" s="4" t="n">
-        <v>-5.869385729428755</v>
+        <v>-5.869385729428744</v>
       </c>
       <c r="C91" s="4" t="n">
         <v>-8.647207289718228</v>
@@ -3886,7 +3886,7 @@
         <v>-8.535519693504035</v>
       </c>
       <c r="F91" s="4" t="n">
-        <v>-0.74582870983676</v>
+        <v>-0.7458287098367489</v>
       </c>
       <c r="G91" s="3" t="n">
         <v>2.733571992486405</v>
@@ -3904,7 +3904,7 @@
         <v>-18.46385352479414</v>
       </c>
       <c r="L91" s="4" t="n">
-        <v>-10.80765876917073</v>
+        <v>-10.80765876917068</v>
       </c>
     </row>
     <row r="92">
@@ -3942,7 +3942,7 @@
         <v>-31.09032717597261</v>
       </c>
       <c r="L92" s="4" t="n">
-        <v>-20.08677724767777</v>
+        <v>-20.0867772476778</v>
       </c>
     </row>
     <row r="93">
@@ -3950,7 +3950,7 @@
         <v>44804</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>8.194565532807975</v>
+        <v>8.194565532807996</v>
       </c>
       <c r="C93" s="3" t="n">
         <v>9.553625720711922</v>
@@ -3962,7 +3962,7 @@
         <v>7.463699604095209</v>
       </c>
       <c r="F93" s="3" t="n">
-        <v>11.24489361688994</v>
+        <v>11.24489361688992</v>
       </c>
       <c r="G93" s="3" t="n">
         <v>12.28182085438752</v>
@@ -3974,7 +3974,7 @@
         <v>11.32105538879917</v>
       </c>
       <c r="J93" s="3" t="n">
-        <v>13.43798073512121</v>
+        <v>13.43798073512117</v>
       </c>
       <c r="K93" s="3" t="n">
         <v>38.20373285662235</v>
@@ -4012,7 +4012,7 @@
         <v>30.70967052679308</v>
       </c>
       <c r="J94" s="4" t="n">
-        <v>-0.7166476392342913</v>
+        <v>-0.716647639234258</v>
       </c>
       <c r="K94" s="4" t="n">
         <v>-15.18886282050838</v>
@@ -4038,7 +4038,7 @@
         <v>3.879353817048714</v>
       </c>
       <c r="F95" s="3" t="n">
-        <v>6.016815341993453</v>
+        <v>6.016815341993476</v>
       </c>
       <c r="G95" s="3" t="n">
         <v>7.801678214497332</v>
@@ -4088,13 +4088,13 @@
         <v>-9.527565931291914</v>
       </c>
       <c r="J96" s="3" t="n">
-        <v>25.4138150973005</v>
+        <v>25.41381509730047</v>
       </c>
       <c r="K96" s="4" t="n">
         <v>-18.17308422515236</v>
       </c>
       <c r="L96" s="3" t="n">
-        <v>8.974669679151726</v>
+        <v>8.974669679151749</v>
       </c>
     </row>
     <row r="97">
@@ -4102,10 +4102,10 @@
         <v>44926</v>
       </c>
       <c r="B97" s="4" t="n">
-        <v>-5.279437016994482</v>
+        <v>-5.266816022593012</v>
       </c>
       <c r="C97" s="4" t="n">
-        <v>-5.553799974150575</v>
+        <v>-5.519838737176164</v>
       </c>
       <c r="D97" s="4" t="n">
         <v>-3.021569494431842</v>
@@ -4114,7 +4114,7 @@
         <v>-4.3531461862362</v>
       </c>
       <c r="F97" s="4" t="n">
-        <v>-5.547154522240372</v>
+        <v>-5.54715452224036</v>
       </c>
       <c r="G97" s="4" t="n">
         <v>-5.39348592776947</v>
@@ -4126,13 +4126,13 @@
         <v>-24.77323336726788</v>
       </c>
       <c r="J97" s="4" t="n">
-        <v>-9.00839179084787</v>
+        <v>-9.008391790847837</v>
       </c>
       <c r="K97" s="4" t="n">
         <v>-2.256860357429336</v>
       </c>
       <c r="L97" s="4" t="n">
-        <v>-0.1105050755461412</v>
+        <v>-0.1105050755461523</v>
       </c>
     </row>
     <row r="98">
@@ -4140,10 +4140,10 @@
         <v>44957</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>6.523464923724442</v>
+        <v>6.509273148488126</v>
       </c>
       <c r="C98" s="3" t="n">
-        <v>1.922346819879905</v>
+        <v>1.885710462288293</v>
       </c>
       <c r="D98" s="3" t="n">
         <v>7.163440615820083</v>
@@ -4152,7 +4152,7 @@
         <v>11.23627831880631</v>
       </c>
       <c r="F98" s="3" t="n">
-        <v>17.39248018856905</v>
+        <v>17.39248018856907</v>
       </c>
       <c r="G98" s="3" t="n">
         <v>2.700203908515286</v>
@@ -4164,13 +4164,13 @@
         <v>15.36955594257379</v>
       </c>
       <c r="J98" s="3" t="n">
-        <v>80.48173439574515</v>
+        <v>80.48173439574519</v>
       </c>
       <c r="K98" s="3" t="n">
         <v>27.2440849591842</v>
       </c>
       <c r="L98" s="3" t="n">
-        <v>16.53726854463633</v>
+        <v>16.53726854463638</v>
       </c>
     </row>
     <row r="99">
@@ -4190,7 +4190,7 @@
         <v>-5.496939079647579</v>
       </c>
       <c r="F99" s="4" t="n">
-        <v>-0.7146993018619652</v>
+        <v>-0.7146993018619763</v>
       </c>
       <c r="G99" s="4" t="n">
         <v>-2.788948615630005</v>
@@ -4202,13 +4202,13 @@
         <v>-31.42131408106998</v>
       </c>
       <c r="J99" s="4" t="n">
-        <v>-18.04693669018007</v>
+        <v>-18.04693669018008</v>
       </c>
       <c r="K99" s="4" t="n">
         <v>-7.868037082547364</v>
       </c>
       <c r="L99" s="3" t="n">
-        <v>10.60298053859889</v>
+        <v>10.60298053859887</v>
       </c>
     </row>
     <row r="100">
@@ -4216,7 +4216,7 @@
         <v>45016</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>16.90362532187766</v>
+        <v>16.90362532187763</v>
       </c>
       <c r="C100" s="3" t="n">
         <v>16.2574016146789</v>
@@ -4240,13 +4240,13 @@
         <v>84.55383818754156</v>
       </c>
       <c r="J100" s="4" t="n">
-        <v>-3.740501316048583</v>
+        <v>-3.740501316048606</v>
       </c>
       <c r="K100" s="3" t="n">
         <v>9.073768151620865</v>
       </c>
       <c r="L100" s="4" t="n">
-        <v>-3.333888038708033</v>
+        <v>-3.333888038707999</v>
       </c>
     </row>
     <row r="101">
@@ -4257,16 +4257,16 @@
         <v>-13.46293733062971</v>
       </c>
       <c r="C101" s="4" t="n">
-        <v>-12.73612194786735</v>
+        <v>-12.70555666658814</v>
       </c>
       <c r="D101" s="4" t="n">
         <v>-13.5376016096723</v>
       </c>
       <c r="E101" s="4" t="n">
-        <v>-16.03426672847881</v>
+        <v>-16.11856967353054</v>
       </c>
       <c r="F101" s="4" t="n">
-        <v>-11.78462971756747</v>
+        <v>-11.78462971756743</v>
       </c>
       <c r="G101" s="4" t="n">
         <v>-12.70479669543625</v>
@@ -4278,7 +4278,7 @@
         <v>-33.02017330885928</v>
       </c>
       <c r="J101" s="3" t="n">
-        <v>21.01272164416537</v>
+        <v>21.01272164416541</v>
       </c>
       <c r="K101" s="4" t="n">
         <v>-13.92266318765597</v>
@@ -4292,22 +4292,22 @@
         <v>45077</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>11.29362894801025</v>
+        <v>11.24308114333303</v>
       </c>
       <c r="C102" s="3" t="n">
-        <v>11.98874051168406</v>
+        <v>11.98453487436395</v>
       </c>
       <c r="D102" s="3" t="n">
-        <v>8.849572607921786</v>
+        <v>8.795819732559874</v>
       </c>
       <c r="E102" s="3" t="n">
-        <v>20.15555007766083</v>
+        <v>20.17591183730689</v>
       </c>
       <c r="F102" s="3" t="n">
-        <v>12.27100100334306</v>
+        <v>12.13101222403714</v>
       </c>
       <c r="G102" s="3" t="n">
-        <v>1.501263584265478</v>
+        <v>1.302436427391296</v>
       </c>
       <c r="H102" s="3" t="n">
         <v>11.32223340661904</v>
@@ -4316,13 +4316,165 @@
         <v>73.47638803142438</v>
       </c>
       <c r="J102" s="4" t="n">
-        <v>-21.09277130174563</v>
+        <v>-21.09277130174565</v>
       </c>
       <c r="K102" s="3" t="n">
         <v>20.32024243290644</v>
       </c>
       <c r="L102" s="3" t="n">
-        <v>17.10951042893731</v>
+        <v>17.10951042893733</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="B103" s="3" t="n">
+        <v>1.734656133674939</v>
+      </c>
+      <c r="C103" s="4" t="n">
+        <v>-1.522826838883939</v>
+      </c>
+      <c r="D103" s="3" t="n">
+        <v>3.622327090033095</v>
+      </c>
+      <c r="E103" s="3" t="n">
+        <v>1.317722835110247</v>
+      </c>
+      <c r="F103" s="3" t="n">
+        <v>2.949250318064456</v>
+      </c>
+      <c r="G103" s="3" t="n">
+        <v>9.418857298164362</v>
+      </c>
+      <c r="H103" s="4" t="n">
+        <v>-7.352740867754148</v>
+      </c>
+      <c r="I103" s="3" t="n">
+        <v>6.948860550313096</v>
+      </c>
+      <c r="J103" s="3" t="n">
+        <v>37.73204064496676</v>
+      </c>
+      <c r="K103" s="3" t="n">
+        <v>0.2617429059951659</v>
+      </c>
+      <c r="L103" s="4" t="n">
+        <v>-17.73701400108754</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="B104" s="4" t="n">
+        <v>-5.242318159765247</v>
+      </c>
+      <c r="C104" s="4" t="n">
+        <v>-7.448755435910115</v>
+      </c>
+      <c r="D104" s="4" t="n">
+        <v>-1.559256824066202</v>
+      </c>
+      <c r="E104" s="4" t="n">
+        <v>-10.22566397960832</v>
+      </c>
+      <c r="F104" s="4" t="n">
+        <v>-8.284912840965807</v>
+      </c>
+      <c r="G104" s="3" t="n">
+        <v>2.495477654186162</v>
+      </c>
+      <c r="H104" s="4" t="n">
+        <v>-4.327067759464731</v>
+      </c>
+      <c r="I104" s="4" t="n">
+        <v>-26.50010987376733</v>
+      </c>
+      <c r="J104" s="4" t="n">
+        <v>-7.652845305534917</v>
+      </c>
+      <c r="K104" s="3" t="n">
+        <v>8.138754150435457</v>
+      </c>
+      <c r="L104" s="4" t="n">
+        <v>-3.68064616594419</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="B105" s="3" t="n">
+        <v>2.54610615701778</v>
+      </c>
+      <c r="C105" s="3" t="n">
+        <v>6.520910666645796</v>
+      </c>
+      <c r="D105" s="4" t="n">
+        <v>-2.590487573702727</v>
+      </c>
+      <c r="E105" s="3" t="n">
+        <v>6.030262572417455</v>
+      </c>
+      <c r="F105" s="3" t="n">
+        <v>9.1973859891608</v>
+      </c>
+      <c r="G105" s="4" t="n">
+        <v>-3.403452619679537</v>
+      </c>
+      <c r="H105" s="4" t="n">
+        <v>-14.23741872495985</v>
+      </c>
+      <c r="I105" s="4" t="n">
+        <v>-5.235837127986754</v>
+      </c>
+      <c r="J105" s="4" t="n">
+        <v>-13.13470004732663</v>
+      </c>
+      <c r="K105" s="3" t="n">
+        <v>34.00766346721016</v>
+      </c>
+      <c r="L105" s="4" t="n">
+        <v>-7.512648199598592</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45199</v>
+      </c>
+      <c r="B106" s="4" t="n">
+        <v>-3.933062846996116</v>
+      </c>
+      <c r="C106" s="4" t="n">
+        <v>-3.917502051302091</v>
+      </c>
+      <c r="D106" s="4" t="n">
+        <v>-4.026923943227024</v>
+      </c>
+      <c r="E106" s="4" t="n">
+        <v>-3.465601305978405</v>
+      </c>
+      <c r="F106" s="4" t="n">
+        <v>-5.361291026684823</v>
+      </c>
+      <c r="G106" s="4" t="n">
+        <v>-4.492713623880862</v>
+      </c>
+      <c r="H106" s="3" t="n">
+        <v>8.156625835803988</v>
+      </c>
+      <c r="I106" s="4" t="n">
+        <v>-10.90696966468857</v>
+      </c>
+      <c r="J106" s="3" t="n">
+        <v>13.48493768851737</v>
+      </c>
+      <c r="K106" s="4" t="n">
+        <v>-14.73431685893094</v>
+      </c>
+      <c r="L106" s="3" t="n">
+        <v>7.880797631715875</v>
       </c>
     </row>
   </sheetData>
